--- a/han/P_Comp.xlsx
+++ b/han/P_Comp.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyang/Desktop/Project-3/Project_3/han/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFE120F4-11C7-A743-AFA0-CDFAC64C1E39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95263B9E-F48F-6D4F-961C-ADE33FD614A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P_Comp" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -509,10 +509,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -867,10 +866,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B560"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -887,7 +888,7 @@
         <v>26665</v>
       </c>
       <c r="B2">
-        <v>2238.668455</v>
+        <v>49250.705999999998</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -895,7 +896,7 @@
         <v>26696</v>
       </c>
       <c r="B3">
-        <v>2262.1428179999998</v>
+        <v>49767.142</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -903,7 +904,7 @@
         <v>26724</v>
       </c>
       <c r="B4">
-        <v>2262.8868179999999</v>
+        <v>49783.51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -911,7 +912,7 @@
         <v>26755</v>
       </c>
       <c r="B5">
-        <v>2260.3685909999999</v>
+        <v>49728.108999999997</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -919,7 +920,7 @@
         <v>26785</v>
       </c>
       <c r="B6">
-        <v>2314.2512729999999</v>
+        <v>50913.527999999998</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -927,7 +928,7 @@
         <v>26816</v>
       </c>
       <c r="B7">
-        <v>2285.8791820000001</v>
+        <v>50289.341999999997</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -935,7 +936,7 @@
         <v>26846</v>
       </c>
       <c r="B8">
-        <v>2363.1567730000002</v>
+        <v>51989.449000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -943,7 +944,7 @@
         <v>26877</v>
       </c>
       <c r="B9">
-        <v>2332.8576360000002</v>
+        <v>51322.868000000002</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -951,7 +952,7 @@
         <v>26908</v>
       </c>
       <c r="B10">
-        <v>2376.528182</v>
+        <v>52283.62</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -959,7 +960,7 @@
         <v>26938</v>
       </c>
       <c r="B11">
-        <v>2331.4077269999998</v>
+        <v>51290.97</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -967,7 +968,7 @@
         <v>26969</v>
       </c>
       <c r="B12">
-        <v>2208.9728639999998</v>
+        <v>48597.402999999998</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -975,7 +976,7 @@
         <v>26999</v>
       </c>
       <c r="B13">
-        <v>2228.1301819999999</v>
+        <v>49018.864000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -983,7 +984,7 @@
         <v>27030</v>
       </c>
       <c r="B14">
-        <v>2277.1820910000001</v>
+        <v>50098.006000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -991,7 +992,7 @@
         <v>27061</v>
       </c>
       <c r="B15">
-        <v>2297.888727</v>
+        <v>50553.552000000003</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -999,7 +1000,7 @@
         <v>27089</v>
       </c>
       <c r="B16">
-        <v>2323.6908640000001</v>
+        <v>51121.199000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1007,7 +1008,7 @@
         <v>27120</v>
       </c>
       <c r="B17">
-        <v>2350.510409</v>
+        <v>51711.228999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1015,7 +1016,7 @@
         <v>27150</v>
       </c>
       <c r="B18">
-        <v>2356.9348180000002</v>
+        <v>51852.565999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1023,7 +1024,7 @@
         <v>27181</v>
       </c>
       <c r="B19">
-        <v>2341.4910909999999</v>
+        <v>51512.803999999996</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1031,7 +1032,7 @@
         <v>27211</v>
       </c>
       <c r="B20">
-        <v>2295.6718179999998</v>
+        <v>50504.78</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1039,7 +1040,7 @@
         <v>27242</v>
       </c>
       <c r="B21">
-        <v>2230.0016820000001</v>
+        <v>49060.036999999997</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1047,7 +1048,7 @@
         <v>27273</v>
       </c>
       <c r="B22">
-        <v>2246.8739999999998</v>
+        <v>49431.228000000003</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1055,7 +1056,7 @@
         <v>27303</v>
       </c>
       <c r="B23">
-        <v>2258.075182</v>
+        <v>49677.654000000002</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1063,7 +1064,7 @@
         <v>27334</v>
       </c>
       <c r="B24">
-        <v>2262.8777730000002</v>
+        <v>49783.311000000002</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1071,7 +1072,7 @@
         <v>27364</v>
       </c>
       <c r="B25">
-        <v>2240.1786360000001</v>
+        <v>49283.93</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1079,7 +1080,7 @@
         <v>27395</v>
       </c>
       <c r="B26">
-        <v>2137.9794550000001</v>
+        <v>47035.548000000003</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1087,7 +1088,7 @@
         <v>27426</v>
       </c>
       <c r="B27">
-        <v>2093.0759549999998</v>
+        <v>46047.671000000002</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1095,7 +1096,7 @@
         <v>27454</v>
       </c>
       <c r="B28">
-        <v>2095.087955</v>
+        <v>46091.934999999998</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1103,7 +1104,7 @@
         <v>27485</v>
       </c>
       <c r="B29">
-        <v>2078.2298179999998</v>
+        <v>45721.055999999997</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1111,7 +1112,7 @@
         <v>27515</v>
       </c>
       <c r="B30">
-        <v>2096.3478639999998</v>
+        <v>46119.652999999998</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1119,7 +1120,7 @@
         <v>27546</v>
       </c>
       <c r="B31">
-        <v>2152.1641359999999</v>
+        <v>47347.610999999997</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1127,7 +1128,7 @@
         <v>27576</v>
       </c>
       <c r="B32">
-        <v>2214.9232729999999</v>
+        <v>48728.311999999998</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1135,7 +1136,7 @@
         <v>27607</v>
       </c>
       <c r="B33">
-        <v>2258.9349999999999</v>
+        <v>49696.57</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1143,7 +1144,7 @@
         <v>27638</v>
       </c>
       <c r="B34">
-        <v>2347.6890450000001</v>
+        <v>51649.159</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1151,7 +1152,7 @@
         <v>27668</v>
       </c>
       <c r="B35">
-        <v>2093.8628640000002</v>
+        <v>46064.983</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1159,7 +1160,7 @@
         <v>27699</v>
       </c>
       <c r="B36">
-        <v>2171.7389549999998</v>
+        <v>47778.256999999998</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1167,7 +1168,7 @@
         <v>27729</v>
       </c>
       <c r="B37">
-        <v>2204.352864</v>
+        <v>48495.762999999999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1175,7 +1176,7 @@
         <v>27760</v>
       </c>
       <c r="B38">
-        <v>2163.6338179999998</v>
+        <v>47599.944000000003</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1183,7 +1184,7 @@
         <v>27791</v>
       </c>
       <c r="B39">
-        <v>2226.2293639999998</v>
+        <v>48977.046000000002</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1191,7 +1192,7 @@
         <v>27820</v>
       </c>
       <c r="B40">
-        <v>2290.9219090000001</v>
+        <v>50400.281999999999</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1199,7 +1200,7 @@
         <v>27851</v>
       </c>
       <c r="B41">
-        <v>2244.1411819999998</v>
+        <v>49371.106</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1207,7 +1208,7 @@
         <v>27881</v>
       </c>
       <c r="B42">
-        <v>2254.2558640000002</v>
+        <v>49593.629000000001</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1215,7 +1216,7 @@
         <v>27912</v>
       </c>
       <c r="B43">
-        <v>2338.0689550000002</v>
+        <v>51437.517</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1223,7 +1224,7 @@
         <v>27942</v>
       </c>
       <c r="B44">
-        <v>2346.4726820000001</v>
+        <v>51622.398999999998</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1231,7 +1232,7 @@
         <v>27973</v>
       </c>
       <c r="B45">
-        <v>2363.0423179999998</v>
+        <v>51986.930999999997</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1239,7 +1240,7 @@
         <v>28004</v>
       </c>
       <c r="B46">
-        <v>2407.4599549999998</v>
+        <v>52964.118999999999</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1247,7 +1248,7 @@
         <v>28034</v>
       </c>
       <c r="B47">
-        <v>2489.2166360000001</v>
+        <v>54762.766000000003</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1255,7 +1256,7 @@
         <v>28065</v>
       </c>
       <c r="B48">
-        <v>2516.4592729999999</v>
+        <v>55362.103999999999</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1263,7 +1264,7 @@
         <v>28095</v>
       </c>
       <c r="B49">
-        <v>2579.0949999999998</v>
+        <v>56740.09</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1271,7 +1272,7 @@
         <v>28126</v>
       </c>
       <c r="B50">
-        <v>2319.421409</v>
+        <v>51027.271000000001</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1279,7 +1280,7 @@
         <v>28157</v>
       </c>
       <c r="B51">
-        <v>2491.5949089999999</v>
+        <v>54815.088000000003</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1287,7 +1288,7 @@
         <v>28185</v>
       </c>
       <c r="B52">
-        <v>2509.6227269999999</v>
+        <v>55211.7</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1295,7 +1296,7 @@
         <v>28216</v>
       </c>
       <c r="B53">
-        <v>2473.4834089999999</v>
+        <v>54416.635000000002</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1303,7 +1304,7 @@
         <v>28246</v>
       </c>
       <c r="B54">
-        <v>2385.1965</v>
+        <v>52474.322999999997</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1311,7 +1312,7 @@
         <v>28277</v>
       </c>
       <c r="B55">
-        <v>2424.9302269999998</v>
+        <v>53348.464999999997</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1319,7 +1320,7 @@
         <v>28307</v>
       </c>
       <c r="B56">
-        <v>2374.1506359999998</v>
+        <v>52231.313999999998</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1327,7 +1328,7 @@
         <v>28338</v>
       </c>
       <c r="B57">
-        <v>2407.9729090000001</v>
+        <v>52975.404000000002</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1335,7 +1336,7 @@
         <v>28369</v>
       </c>
       <c r="B58">
-        <v>2473.9775</v>
+        <v>54427.504999999997</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1343,7 +1344,7 @@
         <v>28399</v>
       </c>
       <c r="B59">
-        <v>2458.3729549999998</v>
+        <v>54084.205000000002</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1351,7 +1352,7 @@
         <v>28430</v>
       </c>
       <c r="B60">
-        <v>2511.0934090000001</v>
+        <v>55244.055</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1359,7 +1360,7 @@
         <v>28460</v>
       </c>
       <c r="B61">
-        <v>2566.6275000000001</v>
+        <v>56465.805</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1367,7 +1368,7 @@
         <v>28491</v>
       </c>
       <c r="B62">
-        <v>2309.4471359999998</v>
+        <v>50807.837</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1375,7 +1376,7 @@
         <v>28522</v>
       </c>
       <c r="B63">
-        <v>2375.5340000000001</v>
+        <v>52261.748</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1383,7 +1384,7 @@
         <v>28550</v>
       </c>
       <c r="B64">
-        <v>2398.7429999999999</v>
+        <v>52772.345999999998</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1391,7 +1392,7 @@
         <v>28581</v>
       </c>
       <c r="B65">
-        <v>2436.6256819999999</v>
+        <v>53605.764999999999</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1399,7 +1400,7 @@
         <v>28611</v>
       </c>
       <c r="B66">
-        <v>2395.385409</v>
+        <v>52698.478999999999</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1407,7 +1408,7 @@
         <v>28642</v>
       </c>
       <c r="B67">
-        <v>2456.0748640000002</v>
+        <v>54033.646999999997</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1415,7 +1416,7 @@
         <v>28672</v>
       </c>
       <c r="B68">
-        <v>2440.884818</v>
+        <v>53699.466</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1423,7 +1424,7 @@
         <v>28703</v>
       </c>
       <c r="B69">
-        <v>2476.155045</v>
+        <v>54475.411</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1431,7 +1432,7 @@
         <v>28734</v>
       </c>
       <c r="B70">
-        <v>2575.6185909999999</v>
+        <v>56663.608999999997</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1439,7 +1440,7 @@
         <v>28764</v>
       </c>
       <c r="B71">
-        <v>2594.057636</v>
+        <v>57069.267999999996</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1447,7 +1448,7 @@
         <v>28795</v>
       </c>
       <c r="B72">
-        <v>2600.971364</v>
+        <v>57221.37</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1455,7 +1456,7 @@
         <v>28825</v>
       </c>
       <c r="B73">
-        <v>2535.3099090000001</v>
+        <v>55776.817999999999</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1463,7 +1464,7 @@
         <v>28856</v>
       </c>
       <c r="B74">
-        <v>2461.8440000000001</v>
+        <v>54160.567999999999</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1471,7 +1472,7 @@
         <v>28887</v>
       </c>
       <c r="B75">
-        <v>2475.0552269999998</v>
+        <v>54451.214999999997</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1479,7 +1480,7 @@
         <v>28915</v>
       </c>
       <c r="B76">
-        <v>2536.6816819999999</v>
+        <v>55806.997000000003</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1487,7 +1488,7 @@
         <v>28946</v>
       </c>
       <c r="B77">
-        <v>2578.806227</v>
+        <v>56733.737000000001</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1495,7 +1496,7 @@
         <v>28976</v>
       </c>
       <c r="B78">
-        <v>2572.232818</v>
+        <v>56589.122000000003</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1503,7 +1504,7 @@
         <v>29007</v>
       </c>
       <c r="B79">
-        <v>2584.6741820000002</v>
+        <v>56862.832000000002</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1511,7 +1512,7 @@
         <v>29037</v>
       </c>
       <c r="B80">
-        <v>2610.8170909999999</v>
+        <v>57437.976000000002</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1519,7 +1520,7 @@
         <v>29068</v>
       </c>
       <c r="B81">
-        <v>2605.2777270000001</v>
+        <v>57316.11</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1527,7 +1528,7 @@
         <v>29099</v>
       </c>
       <c r="B82">
-        <v>2598.990636</v>
+        <v>57177.794000000002</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1535,7 +1536,7 @@
         <v>29129</v>
       </c>
       <c r="B83">
-        <v>2616.592318</v>
+        <v>57565.031000000003</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1543,7 +1544,7 @@
         <v>29160</v>
       </c>
       <c r="B84">
-        <v>2629.820455</v>
+        <v>57856.05</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1551,7 +1552,7 @@
         <v>29190</v>
       </c>
       <c r="B85">
-        <v>2605.8821819999998</v>
+        <v>57329.408000000003</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1559,7 +1560,7 @@
         <v>29221</v>
       </c>
       <c r="B86">
-        <v>2562.080727</v>
+        <v>56365.775999999998</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1567,7 +1568,7 @@
         <v>29252</v>
       </c>
       <c r="B87">
-        <v>2584.337364</v>
+        <v>56855.421999999999</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1575,7 +1576,7 @@
         <v>29281</v>
       </c>
       <c r="B88">
-        <v>2533.4998179999998</v>
+        <v>55736.995999999999</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1583,7 +1584,7 @@
         <v>29312</v>
       </c>
       <c r="B89">
-        <v>2474.226682</v>
+        <v>54432.987000000001</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1591,7 +1592,7 @@
         <v>29342</v>
       </c>
       <c r="B90">
-        <v>2452.0825450000002</v>
+        <v>53945.815999999999</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1599,7 +1600,7 @@
         <v>29373</v>
       </c>
       <c r="B91">
-        <v>2463.6006819999998</v>
+        <v>54199.214999999997</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1607,7 +1608,7 @@
         <v>29403</v>
       </c>
       <c r="B92">
-        <v>2440.5156820000002</v>
+        <v>53691.345000000001</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1615,7 +1616,7 @@
         <v>29434</v>
       </c>
       <c r="B93">
-        <v>2432.729773</v>
+        <v>53520.055</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1623,7 +1624,7 @@
         <v>29465</v>
       </c>
       <c r="B94">
-        <v>2382.7573179999999</v>
+        <v>52420.661</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1631,7 +1632,7 @@
         <v>29495</v>
       </c>
       <c r="B95">
-        <v>2267.9120910000001</v>
+        <v>49894.065999999999</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1639,7 +1640,7 @@
         <v>29526</v>
       </c>
       <c r="B96">
-        <v>2308.2987269999999</v>
+        <v>50782.572</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1647,7 +1648,7 @@
         <v>29556</v>
       </c>
       <c r="B97">
-        <v>2362.5876360000002</v>
+        <v>51976.928</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1655,7 +1656,7 @@
         <v>29587</v>
       </c>
       <c r="B98">
-        <v>2352.7144549999998</v>
+        <v>51759.718000000001</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1663,7 +1664,7 @@
         <v>29618</v>
       </c>
       <c r="B99">
-        <v>2363.350136</v>
+        <v>51993.703000000001</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1671,7 +1672,7 @@
         <v>29646</v>
       </c>
       <c r="B100">
-        <v>2389.2531359999998</v>
+        <v>52563.569000000003</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1679,7 +1680,7 @@
         <v>29677</v>
       </c>
       <c r="B101">
-        <v>2344.182182</v>
+        <v>51572.008000000002</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1687,7 +1688,7 @@
         <v>29707</v>
       </c>
       <c r="B102">
-        <v>2311.3154549999999</v>
+        <v>50848.94</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1695,7 +1696,7 @@
         <v>29738</v>
       </c>
       <c r="B103">
-        <v>2290.2442729999998</v>
+        <v>50385.374000000003</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1703,7 +1704,7 @@
         <v>29768</v>
       </c>
       <c r="B104">
-        <v>2212.631136</v>
+        <v>48677.885000000002</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1711,7 +1712,7 @@
         <v>29799</v>
       </c>
       <c r="B105">
-        <v>2200.9639090000001</v>
+        <v>48421.205999999998</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1719,7 +1720,7 @@
         <v>29830</v>
       </c>
       <c r="B106">
-        <v>2191.7842270000001</v>
+        <v>48219.252999999997</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1727,7 +1728,7 @@
         <v>29860</v>
       </c>
       <c r="B107">
-        <v>2202.3196360000002</v>
+        <v>48451.031999999999</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1735,7 +1736,7 @@
         <v>29891</v>
       </c>
       <c r="B108">
-        <v>2177.047818</v>
+        <v>47895.052000000003</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1743,7 +1744,7 @@
         <v>29921</v>
       </c>
       <c r="B109">
-        <v>2222.6289550000001</v>
+        <v>48897.837</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1751,7 +1752,7 @@
         <v>29952</v>
       </c>
       <c r="B110">
-        <v>2754.634724</v>
+        <v>79884.407000000007</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1759,7 +1760,7 @@
         <v>29983</v>
       </c>
       <c r="B111">
-        <v>2772.7074480000001</v>
+        <v>80408.516000000003</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -1767,7 +1768,7 @@
         <v>30011</v>
       </c>
       <c r="B112">
-        <v>2667.784138</v>
+        <v>77365.740000000005</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -1775,7 +1776,7 @@
         <v>30042</v>
       </c>
       <c r="B113">
-        <v>2594.6080000000002</v>
+        <v>75243.631999999998</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -1783,7 +1784,7 @@
         <v>30072</v>
       </c>
       <c r="B114">
-        <v>2529.580966</v>
+        <v>73357.847999999998</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -1791,7 +1792,7 @@
         <v>30103</v>
       </c>
       <c r="B115">
-        <v>2611.481483</v>
+        <v>75732.963000000003</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -1799,7 +1800,7 @@
         <v>30133</v>
       </c>
       <c r="B116">
-        <v>2586.8439659999999</v>
+        <v>75018.475000000006</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -1807,7 +1808,7 @@
         <v>30164</v>
       </c>
       <c r="B117">
-        <v>2571.5475860000001</v>
+        <v>74574.880000000005</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -1815,7 +1816,7 @@
         <v>30195</v>
       </c>
       <c r="B118">
-        <v>2592.294586</v>
+        <v>75176.543000000005</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -1823,7 +1824,7 @@
         <v>30225</v>
       </c>
       <c r="B119">
-        <v>2633.3653100000001</v>
+        <v>76367.593999999997</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -1831,7 +1832,7 @@
         <v>30256</v>
       </c>
       <c r="B120">
-        <v>2700.848207</v>
+        <v>78324.597999999998</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -1839,7 +1840,7 @@
         <v>30286</v>
       </c>
       <c r="B121">
-        <v>2698.4319660000001</v>
+        <v>78254.527000000002</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -1847,7 +1848,7 @@
         <v>30317</v>
       </c>
       <c r="B122">
-        <v>2584.1482070000002</v>
+        <v>74940.297999999995</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -1855,7 +1856,7 @@
         <v>30348</v>
       </c>
       <c r="B123">
-        <v>2548.0413100000001</v>
+        <v>73893.198000000004</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -1863,7 +1864,7 @@
         <v>30376</v>
       </c>
       <c r="B124">
-        <v>2575.1533789999999</v>
+        <v>74679.448000000004</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -1871,7 +1872,7 @@
         <v>30407</v>
       </c>
       <c r="B125">
-        <v>2491.4979309999999</v>
+        <v>72253.440000000002</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -1879,7 +1880,7 @@
         <v>30437</v>
       </c>
       <c r="B126">
-        <v>2518.6841030000001</v>
+        <v>73041.839000000007</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -1887,7 +1888,7 @@
         <v>30468</v>
       </c>
       <c r="B127">
-        <v>2562.9255520000002</v>
+        <v>74324.841</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -1895,7 +1896,7 @@
         <v>30498</v>
       </c>
       <c r="B128">
-        <v>2586.9281380000002</v>
+        <v>75020.915999999997</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -1903,7 +1904,7 @@
         <v>30529</v>
       </c>
       <c r="B129">
-        <v>2624.9847589999999</v>
+        <v>76124.558000000005</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -1911,7 +1912,7 @@
         <v>30560</v>
       </c>
       <c r="B130">
-        <v>2643.1825859999999</v>
+        <v>76652.294999999998</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -1919,7 +1920,7 @@
         <v>30590</v>
       </c>
       <c r="B131">
-        <v>2630.7869310000001</v>
+        <v>76292.820999999996</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -1927,7 +1928,7 @@
         <v>30621</v>
       </c>
       <c r="B132">
-        <v>2691.5911379999998</v>
+        <v>78056.142999999996</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -1935,7 +1936,7 @@
         <v>30651</v>
       </c>
       <c r="B133">
-        <v>2750.0191030000001</v>
+        <v>79750.554000000004</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -1943,7 +1944,7 @@
         <v>30682</v>
       </c>
       <c r="B134">
-        <v>2665.0834249999998</v>
+        <v>79952.502739999996</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -1951,7 +1952,7 @@
         <v>30713</v>
       </c>
       <c r="B135">
-        <v>2665.8732679999998</v>
+        <v>79976.19803</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -1959,7 +1960,7 @@
         <v>30742</v>
       </c>
       <c r="B136">
-        <v>2653.4095940000002</v>
+        <v>79602.287819999998</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -1967,7 +1968,7 @@
         <v>30773</v>
       </c>
       <c r="B137">
-        <v>2577.1040029999999</v>
+        <v>77313.120089999997</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -1975,7 +1976,7 @@
         <v>30803</v>
       </c>
       <c r="B138">
-        <v>2567.112196</v>
+        <v>77013.365869999994</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -1983,7 +1984,7 @@
         <v>30834</v>
       </c>
       <c r="B139">
-        <v>2600.6418239999998</v>
+        <v>78019.254719999997</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -1991,7 +1992,7 @@
         <v>30864</v>
       </c>
       <c r="B140">
-        <v>2576.04729</v>
+        <v>77281.418709999998</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -1999,7 +2000,7 @@
         <v>30895</v>
       </c>
       <c r="B141">
-        <v>2549.9354090000002</v>
+        <v>76498.062260000006</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -2007,7 +2008,7 @@
         <v>30926</v>
       </c>
       <c r="B142">
-        <v>2537.8916469999999</v>
+        <v>76136.749410000004</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -2015,7 +2016,7 @@
         <v>30956</v>
       </c>
       <c r="B143">
-        <v>2574.952843</v>
+        <v>77248.585290000003</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -2023,7 +2024,7 @@
         <v>30987</v>
       </c>
       <c r="B144">
-        <v>2612.2481469999998</v>
+        <v>78367.444409999996</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -2031,7 +2032,7 @@
         <v>31017</v>
       </c>
       <c r="B145">
-        <v>2609.1612730000002</v>
+        <v>78274.838180000006</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -2039,7 +2040,7 @@
         <v>31048</v>
       </c>
       <c r="B146">
-        <v>2610.5754059999999</v>
+        <v>78317.262170000002</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -2047,7 +2048,7 @@
         <v>31079</v>
       </c>
       <c r="B147">
-        <v>2658.1047450000001</v>
+        <v>79743.142359999998</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -2055,7 +2056,7 @@
         <v>31107</v>
       </c>
       <c r="B148">
-        <v>2579.409842</v>
+        <v>77382.295259999999</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -2063,7 +2064,7 @@
         <v>31138</v>
       </c>
       <c r="B149">
-        <v>2527.6139010000002</v>
+        <v>75828.417019999993</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -2071,7 +2072,7 @@
         <v>31168</v>
       </c>
       <c r="B150">
-        <v>2467.9676679999998</v>
+        <v>74039.030029999994</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -2079,7 +2080,7 @@
         <v>31199</v>
       </c>
       <c r="B151">
-        <v>2425.4241670000001</v>
+        <v>72762.725000000006</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -2087,7 +2088,7 @@
         <v>31229</v>
       </c>
       <c r="B152">
-        <v>2472.0362540000001</v>
+        <v>74161.087610000002</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -2095,7 +2096,7 @@
         <v>31260</v>
       </c>
       <c r="B153">
-        <v>2488.0407500000001</v>
+        <v>74641.222510000007</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -2103,7 +2104,7 @@
         <v>31291</v>
       </c>
       <c r="B154">
-        <v>2522.5042560000002</v>
+        <v>75675.127670000002</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -2111,7 +2112,7 @@
         <v>31321</v>
       </c>
       <c r="B155">
-        <v>2622.4815229999999</v>
+        <v>78674.445680000004</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -2119,7 +2120,7 @@
         <v>31352</v>
       </c>
       <c r="B156">
-        <v>2633.8370669999999</v>
+        <v>79015.111999999994</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -2127,7 +2128,7 @@
         <v>31382</v>
       </c>
       <c r="B157">
-        <v>2708.618919</v>
+        <v>81258.567580000003</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -2135,7 +2136,7 @@
         <v>31413</v>
       </c>
       <c r="B158">
-        <v>2642.1291139999998</v>
+        <v>79263.873420000004</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -2143,7 +2144,7 @@
         <v>31444</v>
       </c>
       <c r="B159">
-        <v>2700.6047140000001</v>
+        <v>81018.141430000003</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -2151,7 +2152,7 @@
         <v>31472</v>
       </c>
       <c r="B160">
-        <v>2626.329099</v>
+        <v>78789.872969999997</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -2159,7 +2160,7 @@
         <v>31503</v>
       </c>
       <c r="B161">
-        <v>2619.0102219999999</v>
+        <v>78570.306670000005</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -2167,7 +2168,7 @@
         <v>31533</v>
       </c>
       <c r="B162">
-        <v>2611.20201</v>
+        <v>78336.060289999994</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -2175,7 +2176,7 @@
         <v>31564</v>
       </c>
       <c r="B163">
-        <v>2652.4281559999999</v>
+        <v>79572.844670000006</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -2183,7 +2184,7 @@
         <v>31594</v>
       </c>
       <c r="B164">
-        <v>2701.7775379999998</v>
+        <v>81053.326130000001</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -2191,7 +2192,7 @@
         <v>31625</v>
       </c>
       <c r="B165">
-        <v>2718.5613680000001</v>
+        <v>81556.841029999996</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -2199,7 +2200,7 @@
         <v>31656</v>
       </c>
       <c r="B166">
-        <v>2583.2045109999999</v>
+        <v>77496.135330000005</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -2207,7 +2208,7 @@
         <v>31686</v>
       </c>
       <c r="B167">
-        <v>2623.2892470000002</v>
+        <v>78698.677420000007</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -2215,7 +2216,7 @@
         <v>31717</v>
       </c>
       <c r="B168">
-        <v>2651.3523439999999</v>
+        <v>79540.570330000002</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -2223,7 +2224,7 @@
         <v>31747</v>
       </c>
       <c r="B169">
-        <v>2742.6625749999998</v>
+        <v>82279.877259999994</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -2231,7 +2232,7 @@
         <v>31778</v>
       </c>
       <c r="B170">
-        <v>2674.3830029999999</v>
+        <v>80231.490080000003</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -2239,7 +2240,7 @@
         <v>31809</v>
       </c>
       <c r="B171">
-        <v>2679.161928</v>
+        <v>80374.85785</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -2247,7 +2248,7 @@
         <v>31837</v>
       </c>
       <c r="B172">
-        <v>2622.739384</v>
+        <v>78682.181509999995</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -2255,7 +2256,7 @@
         <v>31868</v>
       </c>
       <c r="B173">
-        <v>2609.5247709999999</v>
+        <v>78285.743119999999</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -2263,7 +2264,7 @@
         <v>31898</v>
       </c>
       <c r="B174">
-        <v>2579.8026970000001</v>
+        <v>77394.080900000001</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -2271,7 +2272,7 @@
         <v>31929</v>
       </c>
       <c r="B175">
-        <v>2628.6474589999998</v>
+        <v>78859.423779999997</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -2279,7 +2280,7 @@
         <v>31959</v>
       </c>
       <c r="B176">
-        <v>2730.133272</v>
+        <v>81903.998160000003</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -2287,7 +2288,7 @@
         <v>31990</v>
       </c>
       <c r="B177">
-        <v>2706.710748</v>
+        <v>81201.322440000004</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -2295,7 +2296,7 @@
         <v>32021</v>
       </c>
       <c r="B178">
-        <v>2727.6591840000001</v>
+        <v>81829.775510000007</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -2303,7 +2304,7 @@
         <v>32051</v>
       </c>
       <c r="B179">
-        <v>2734.273858</v>
+        <v>82028.215729999996</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -2311,7 +2312,7 @@
         <v>32082</v>
       </c>
       <c r="B180">
-        <v>2719.9410619999999</v>
+        <v>81598.23186</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -2319,7 +2320,7 @@
         <v>32112</v>
       </c>
       <c r="B181">
-        <v>2807.7317929999999</v>
+        <v>84231.95379</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -2327,7 +2328,7 @@
         <v>32143</v>
       </c>
       <c r="B182">
-        <v>2722.464927</v>
+        <v>81673.947809999998</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -2335,7 +2336,7 @@
         <v>32174</v>
       </c>
       <c r="B183">
-        <v>2794.1456619999999</v>
+        <v>83824.369860000006</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -2343,7 +2344,7 @@
         <v>32203</v>
       </c>
       <c r="B184">
-        <v>2785.36033</v>
+        <v>83560.809909999996</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -2351,7 +2352,7 @@
         <v>32234</v>
       </c>
       <c r="B185">
-        <v>2699.42893</v>
+        <v>80982.867889999994</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -2359,7 +2360,7 @@
         <v>32264</v>
       </c>
       <c r="B186">
-        <v>2657.902791</v>
+        <v>79737.083740000002</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -2367,7 +2368,7 @@
         <v>32295</v>
       </c>
       <c r="B187">
-        <v>2712.6721630000002</v>
+        <v>81380.16489</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -2375,7 +2376,7 @@
         <v>32325</v>
       </c>
       <c r="B188">
-        <v>2707.5863169999998</v>
+        <v>81227.589510000005</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -2383,7 +2384,7 @@
         <v>32356</v>
       </c>
       <c r="B189">
-        <v>2767.637185</v>
+        <v>83029.115539999999</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -2391,7 +2392,7 @@
         <v>32387</v>
       </c>
       <c r="B190">
-        <v>2783.7346630000002</v>
+        <v>83512.03989</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -2399,7 +2400,7 @@
         <v>32417</v>
       </c>
       <c r="B191">
-        <v>2850.9662360000002</v>
+        <v>85528.987089999995</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -2407,7 +2408,7 @@
         <v>32448</v>
       </c>
       <c r="B192">
-        <v>2939.4877849999998</v>
+        <v>88184.633549999999</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -2415,7 +2416,7 @@
         <v>32478</v>
       </c>
       <c r="B193">
-        <v>2991.7424850000002</v>
+        <v>89752.274539999999</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -2423,7 +2424,7 @@
         <v>32509</v>
       </c>
       <c r="B194">
-        <v>2790.2742750000002</v>
+        <v>83708.22825</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -2431,7 +2432,7 @@
         <v>32540</v>
       </c>
       <c r="B195">
-        <v>2831.1868260000001</v>
+        <v>84935.604770000005</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -2439,7 +2440,7 @@
         <v>32568</v>
       </c>
       <c r="B196">
-        <v>2834.5033960000001</v>
+        <v>85035.101869999999</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -2447,7 +2448,7 @@
         <v>32599</v>
       </c>
       <c r="B197">
-        <v>2750.57492</v>
+        <v>82517.247589999999</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -2455,7 +2456,7 @@
         <v>32629</v>
       </c>
       <c r="B198">
-        <v>2732.1075740000001</v>
+        <v>81963.227230000004</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -2463,7 +2464,7 @@
         <v>32660</v>
       </c>
       <c r="B199">
-        <v>2781.6227789999998</v>
+        <v>83448.683380000002</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -2471,7 +2472,7 @@
         <v>32690</v>
       </c>
       <c r="B200">
-        <v>2750.362529</v>
+        <v>82510.875870000003</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -2479,7 +2480,7 @@
         <v>32721</v>
       </c>
       <c r="B201">
-        <v>2825.490922</v>
+        <v>84764.727650000001</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -2487,7 +2488,7 @@
         <v>32752</v>
       </c>
       <c r="B202">
-        <v>2814.7920290000002</v>
+        <v>84443.760869999998</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -2495,7 +2496,7 @@
         <v>32782</v>
       </c>
       <c r="B203">
-        <v>2865.7209160000002</v>
+        <v>85971.627479999996</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -2503,7 +2504,7 @@
         <v>32813</v>
       </c>
       <c r="B204">
-        <v>2927.0780719999998</v>
+        <v>87812.342149999997</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -2511,7 +2512,7 @@
         <v>32843</v>
       </c>
       <c r="B205">
-        <v>2995.2583070000001</v>
+        <v>89857.749219999998</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -2519,7 +2520,7 @@
         <v>32874</v>
       </c>
       <c r="B206">
-        <v>2888.2515269999999</v>
+        <v>86647.545819999999</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -2527,7 +2528,7 @@
         <v>32905</v>
       </c>
       <c r="B207">
-        <v>2920.6878219999999</v>
+        <v>87620.634650000007</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -2535,7 +2536,7 @@
         <v>32933</v>
       </c>
       <c r="B208">
-        <v>2919.555456</v>
+        <v>87586.663690000001</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -2543,7 +2544,7 @@
         <v>32964</v>
       </c>
       <c r="B209">
-        <v>2841.6920180000002</v>
+        <v>85250.760550000006</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -2551,7 +2552,7 @@
         <v>32994</v>
       </c>
       <c r="B210">
-        <v>2828.4403579999998</v>
+        <v>84853.210739999995</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -2559,7 +2560,7 @@
         <v>33025</v>
       </c>
       <c r="B211">
-        <v>2816.5777600000001</v>
+        <v>84497.332800000004</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -2567,7 +2568,7 @@
         <v>33055</v>
       </c>
       <c r="B212">
-        <v>2846.9922539999998</v>
+        <v>85409.767630000002</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -2575,7 +2576,7 @@
         <v>33086</v>
       </c>
       <c r="B213">
-        <v>2750.3968300000001</v>
+        <v>82511.904909999997</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -2583,7 +2584,7 @@
         <v>33117</v>
       </c>
       <c r="B214">
-        <v>2768.6586400000001</v>
+        <v>83059.759210000004</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -2591,7 +2592,7 @@
         <v>33147</v>
       </c>
       <c r="B215">
-        <v>2800.4448860000002</v>
+        <v>84013.346579999998</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -2599,7 +2600,7 @@
         <v>33178</v>
       </c>
       <c r="B216">
-        <v>2839.367342</v>
+        <v>85181.020250000001</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -2607,7 +2608,7 @@
         <v>33208</v>
       </c>
       <c r="B217">
-        <v>2861.8902710000002</v>
+        <v>85856.708119999996</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -2615,7 +2616,7 @@
         <v>33239</v>
       </c>
       <c r="B218">
-        <v>2904.3634870000001</v>
+        <v>87130.904620000001</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -2623,7 +2624,7 @@
         <v>33270</v>
       </c>
       <c r="B219">
-        <v>2852.0920569999998</v>
+        <v>85562.761710000006</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -2631,7 +2632,7 @@
         <v>33298</v>
       </c>
       <c r="B220">
-        <v>2817.0685250000001</v>
+        <v>84512.055739999996</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -2639,7 +2640,7 @@
         <v>33329</v>
       </c>
       <c r="B221">
-        <v>2763.0379109999999</v>
+        <v>82891.137329999998</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -2647,7 +2648,7 @@
         <v>33359</v>
       </c>
       <c r="B222">
-        <v>2745.916557</v>
+        <v>82377.496710000007</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -2655,7 +2656,7 @@
         <v>33390</v>
       </c>
       <c r="B223">
-        <v>2776.4059240000001</v>
+        <v>83292.177720000007</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -2663,7 +2664,7 @@
         <v>33420</v>
       </c>
       <c r="B224">
-        <v>2803.750219</v>
+        <v>84112.506580000001</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -2671,7 +2672,7 @@
         <v>33451</v>
       </c>
       <c r="B225">
-        <v>2785.312191</v>
+        <v>83559.365720000002</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -2679,7 +2680,7 @@
         <v>33482</v>
       </c>
       <c r="B226">
-        <v>2816.7738469999999</v>
+        <v>84503.215400000001</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -2687,7 +2688,7 @@
         <v>33512</v>
       </c>
       <c r="B227">
-        <v>2858.737455</v>
+        <v>85762.123659999997</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -2695,7 +2696,7 @@
         <v>33543</v>
       </c>
       <c r="B228">
-        <v>2874.377191</v>
+        <v>86231.315740000005</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -2703,7 +2704,7 @@
         <v>33573</v>
       </c>
       <c r="B229">
-        <v>2928.0786320000002</v>
+        <v>87842.358959999998</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -2711,7 +2712,7 @@
         <v>33604</v>
       </c>
       <c r="B230">
-        <v>2898.650298</v>
+        <v>86959.50894</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -2719,7 +2720,7 @@
         <v>33635</v>
       </c>
       <c r="B231">
-        <v>2870.6701840000001</v>
+        <v>86120.105519999997</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -2727,7 +2728,7 @@
         <v>33664</v>
       </c>
       <c r="B232">
-        <v>2813.9577880000002</v>
+        <v>84418.733630000002</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -2735,7 +2736,7 @@
         <v>33695</v>
       </c>
       <c r="B233">
-        <v>2804.713174</v>
+        <v>84141.395220000006</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -2743,7 +2744,7 @@
         <v>33725</v>
       </c>
       <c r="B234">
-        <v>2709.7385730000001</v>
+        <v>81292.157200000001</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -2751,7 +2752,7 @@
         <v>33756</v>
       </c>
       <c r="B235">
-        <v>2756.565869</v>
+        <v>82696.976079999993</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -2759,7 +2760,7 @@
         <v>33786</v>
       </c>
       <c r="B236">
-        <v>2801.1310450000001</v>
+        <v>84033.931339999996</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -2767,7 +2768,7 @@
         <v>33817</v>
       </c>
       <c r="B237">
-        <v>2762.5562880000002</v>
+        <v>82876.688649999996</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -2775,7 +2776,7 @@
         <v>33848</v>
       </c>
       <c r="B238">
-        <v>2807.0857689999998</v>
+        <v>84212.573069999999</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -2783,7 +2784,7 @@
         <v>33878</v>
       </c>
       <c r="B239">
-        <v>2847.8821050000001</v>
+        <v>85436.463140000007</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -2791,7 +2792,7 @@
         <v>33909</v>
       </c>
       <c r="B240">
-        <v>2860.7834939999998</v>
+        <v>85823.504809999999</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -2799,7 +2800,7 @@
         <v>33939</v>
       </c>
       <c r="B241">
-        <v>2923.8056470000001</v>
+        <v>87714.169410000002</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -2807,7 +2808,7 @@
         <v>33970</v>
       </c>
       <c r="B242">
-        <v>2810.205457</v>
+        <v>84306.163700000005</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -2815,7 +2816,7 @@
         <v>34001</v>
       </c>
       <c r="B243">
-        <v>2906.4737479999999</v>
+        <v>87194.212450000006</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -2823,7 +2824,7 @@
         <v>34029</v>
       </c>
       <c r="B244">
-        <v>2888.133769</v>
+        <v>86644.013070000001</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -2831,7 +2832,7 @@
         <v>34060</v>
       </c>
       <c r="B245">
-        <v>2786.0211199999999</v>
+        <v>83580.633589999998</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -2839,7 +2840,7 @@
         <v>34090</v>
       </c>
       <c r="B246">
-        <v>2730.2703670000001</v>
+        <v>81908.111000000004</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -2847,7 +2848,7 @@
         <v>34121</v>
       </c>
       <c r="B247">
-        <v>2782.2883609999999</v>
+        <v>83468.650819999995</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -2855,7 +2856,7 @@
         <v>34151</v>
       </c>
       <c r="B248">
-        <v>2799.585376</v>
+        <v>83987.561289999998</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -2863,7 +2864,7 @@
         <v>34182</v>
       </c>
       <c r="B249">
-        <v>2781.1580060000001</v>
+        <v>83434.740189999997</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -2871,7 +2872,7 @@
         <v>34213</v>
       </c>
       <c r="B250">
-        <v>2817.7572869999999</v>
+        <v>84532.718609999996</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -2879,7 +2880,7 @@
         <v>34243</v>
       </c>
       <c r="B251">
-        <v>2820.6899020000001</v>
+        <v>84620.697069999995</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -2887,7 +2888,7 @@
         <v>34274</v>
       </c>
       <c r="B252">
-        <v>2889.1616359999998</v>
+        <v>86674.84908</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -2895,7 +2896,7 @@
         <v>34304</v>
       </c>
       <c r="B253">
-        <v>2944.7296510000001</v>
+        <v>88341.889540000004</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -2903,7 +2904,7 @@
         <v>34335</v>
       </c>
       <c r="B254">
-        <v>191.18152309999999</v>
+        <v>239550.44839999999</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -2911,7 +2912,7 @@
         <v>34366</v>
       </c>
       <c r="B255">
-        <v>192.09171699999999</v>
+        <v>240690.92139999999</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -2919,7 +2920,7 @@
         <v>34394</v>
       </c>
       <c r="B256">
-        <v>190.82082489999999</v>
+        <v>239098.49350000001</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -2927,7 +2928,7 @@
         <v>34425</v>
       </c>
       <c r="B257">
-        <v>188.62811919999999</v>
+        <v>236351.03330000001</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -2935,7 +2936,7 @@
         <v>34455</v>
       </c>
       <c r="B258">
-        <v>188.50105550000001</v>
+        <v>236191.82260000001</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -2943,7 +2944,7 @@
         <v>34486</v>
       </c>
       <c r="B259">
-        <v>190.5882948</v>
+        <v>238807.13329999999</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -2951,7 +2952,7 @@
         <v>34516</v>
       </c>
       <c r="B260">
-        <v>189.64202560000001</v>
+        <v>237621.45809999999</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -2959,7 +2960,7 @@
         <v>34547</v>
       </c>
       <c r="B261">
-        <v>190.0313879</v>
+        <v>238109.329</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -2967,7 +2968,7 @@
         <v>34578</v>
       </c>
       <c r="B262">
-        <v>191.48720399999999</v>
+        <v>239933.46669999999</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -2975,7 +2976,7 @@
         <v>34608</v>
       </c>
       <c r="B263">
-        <v>192.96136240000001</v>
+        <v>241780.5871</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -2983,7 +2984,7 @@
         <v>34639</v>
       </c>
       <c r="B264">
-        <v>194.44301680000001</v>
+        <v>243637.1</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -2991,7 +2992,7 @@
         <v>34669</v>
       </c>
       <c r="B265">
-        <v>196.78532039999999</v>
+        <v>246572.00649999999</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -2999,7 +3000,7 @@
         <v>34700</v>
       </c>
       <c r="B266">
-        <v>195.3327056</v>
+        <v>243579.88389999999</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -3007,7 +3008,7 @@
         <v>34731</v>
       </c>
       <c r="B267">
-        <v>198.23946609999999</v>
+        <v>247204.61429999999</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -3015,7 +3016,7 @@
         <v>34759</v>
       </c>
       <c r="B268">
-        <v>195.2713454</v>
+        <v>243503.3677</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -3023,7 +3024,7 @@
         <v>34790</v>
       </c>
       <c r="B269">
-        <v>195.7109596</v>
+        <v>244051.5667</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -3031,7 +3032,7 @@
         <v>34820</v>
       </c>
       <c r="B270">
-        <v>195.25928289999999</v>
+        <v>243488.32579999999</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -3039,7 +3040,7 @@
         <v>34851</v>
       </c>
       <c r="B271">
-        <v>193.41395349999999</v>
+        <v>241187.20000000001</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -3047,7 +3048,7 @@
         <v>34881</v>
       </c>
       <c r="B272">
-        <v>195.18680449999999</v>
+        <v>243397.94519999999</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -3055,7 +3056,7 @@
         <v>34912</v>
       </c>
       <c r="B273">
-        <v>196.6872572</v>
+        <v>245269.0097</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -3063,7 +3064,7 @@
         <v>34943</v>
       </c>
       <c r="B274">
-        <v>197.97639670000001</v>
+        <v>246876.5667</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -3071,7 +3072,7 @@
         <v>34973</v>
       </c>
       <c r="B275">
-        <v>196.48641380000001</v>
+        <v>245018.55809999999</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -3079,7 +3080,7 @@
         <v>35004</v>
       </c>
       <c r="B276">
-        <v>198.93662119999999</v>
+        <v>248073.96669999999</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -3087,7 +3088,7 @@
         <v>35034</v>
       </c>
       <c r="B277">
-        <v>200.65458520000001</v>
+        <v>250216.2677</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -3095,7 +3096,7 @@
         <v>35065</v>
       </c>
       <c r="B278">
-        <v>199.05211449999999</v>
+        <v>249611.35159999999</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -3103,7 +3104,7 @@
         <v>35096</v>
       </c>
       <c r="B279">
-        <v>200.91983719999999</v>
+        <v>251953.47589999999</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -3111,7 +3112,7 @@
         <v>35125</v>
       </c>
       <c r="B280">
-        <v>200.05134279999999</v>
+        <v>250864.38389999999</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -3119,7 +3120,7 @@
         <v>35156</v>
       </c>
       <c r="B281">
-        <v>198.27349810000001</v>
+        <v>248634.96669999999</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -3127,7 +3128,7 @@
         <v>35186</v>
       </c>
       <c r="B282">
-        <v>197.33376809999999</v>
+        <v>247456.54519999999</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -3135,7 +3136,7 @@
         <v>35217</v>
       </c>
       <c r="B283">
-        <v>198.10925040000001</v>
+        <v>248429</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -3143,7 +3144,7 @@
         <v>35247</v>
       </c>
       <c r="B284">
-        <v>199.37352469999999</v>
+        <v>250014.4</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -3151,7 +3152,7 @@
         <v>35278</v>
       </c>
       <c r="B285">
-        <v>198.53977979999999</v>
+        <v>248968.88389999999</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -3159,7 +3160,7 @@
         <v>35309</v>
       </c>
       <c r="B286">
-        <v>199.0780968</v>
+        <v>249643.9333</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -3167,7 +3168,7 @@
         <v>35339</v>
       </c>
       <c r="B287">
-        <v>201.937938</v>
+        <v>253230.17420000001</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -3175,7 +3176,7 @@
         <v>35370</v>
       </c>
       <c r="B288">
-        <v>203.06945769999999</v>
+        <v>254649.1</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -3183,7 +3184,7 @@
         <v>35400</v>
       </c>
       <c r="B289">
-        <v>204.98429279999999</v>
+        <v>257050.30319999999</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -3191,7 +3192,7 @@
         <v>35431</v>
       </c>
       <c r="B290">
-        <v>204.65683329999999</v>
+        <v>256844.32579999999</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -3199,7 +3200,7 @@
         <v>35462</v>
       </c>
       <c r="B291">
-        <v>205.86634599999999</v>
+        <v>258362.26430000001</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -3207,7 +3208,7 @@
         <v>35490</v>
       </c>
       <c r="B292">
-        <v>204.33003729999999</v>
+        <v>256434.19680000001</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -3215,7 +3216,7 @@
         <v>35521</v>
       </c>
       <c r="B293">
-        <v>205.7141833</v>
+        <v>258171.3</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -3223,7 +3224,7 @@
         <v>35551</v>
       </c>
       <c r="B294">
-        <v>202.99724710000001</v>
+        <v>254761.54519999999</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -3231,7 +3232,7 @@
         <v>35582</v>
       </c>
       <c r="B295">
-        <v>201.80581670000001</v>
+        <v>253266.3</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -3239,7 +3240,7 @@
         <v>35612</v>
       </c>
       <c r="B296">
-        <v>203.97373089999999</v>
+        <v>255987.03229999999</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -3247,7 +3248,7 @@
         <v>35643</v>
       </c>
       <c r="B297">
-        <v>205.0500964</v>
+        <v>257337.87100000001</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -3255,7 +3256,7 @@
         <v>35674</v>
       </c>
       <c r="B298">
-        <v>206.97081009999999</v>
+        <v>259748.36670000001</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -3263,7 +3264,7 @@
         <v>35704</v>
       </c>
       <c r="B299">
-        <v>208.77161029999999</v>
+        <v>262008.37100000001</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -3271,7 +3272,7 @@
         <v>35735</v>
       </c>
       <c r="B300">
-        <v>207.87851259999999</v>
+        <v>260887.53330000001</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -3279,7 +3280,7 @@
         <v>35765</v>
       </c>
       <c r="B301">
-        <v>209.32623570000001</v>
+        <v>262704.42580000003</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -3287,7 +3288,7 @@
         <v>35796</v>
       </c>
       <c r="B302">
-        <v>210.49602479999999</v>
+        <v>264593.50319999998</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -3295,7 +3296,7 @@
         <v>35827</v>
       </c>
       <c r="B303">
-        <v>212.1593306</v>
+        <v>266684.27860000002</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -3303,7 +3304,7 @@
         <v>35855</v>
       </c>
       <c r="B304">
-        <v>211.58150739999999</v>
+        <v>265957.95480000001</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -3311,7 +3312,7 @@
         <v>35886</v>
       </c>
       <c r="B305">
-        <v>210.23097319999999</v>
+        <v>264260.3333</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -3319,7 +3320,7 @@
         <v>35916</v>
       </c>
       <c r="B306">
-        <v>207.40622579999999</v>
+        <v>260709.62580000001</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -3327,7 +3328,7 @@
         <v>35947</v>
       </c>
       <c r="B307">
-        <v>208.1971891</v>
+        <v>261703.86670000001</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -3335,7 +3336,7 @@
         <v>35977</v>
       </c>
       <c r="B308">
-        <v>207.70627200000001</v>
+        <v>261086.78390000001</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -3343,7 +3344,7 @@
         <v>36008</v>
       </c>
       <c r="B309">
-        <v>205.3320502</v>
+        <v>258102.38709999999</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -3351,7 +3352,7 @@
         <v>36039</v>
       </c>
       <c r="B310">
-        <v>205.55855209999999</v>
+        <v>258387.1</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -3359,7 +3360,7 @@
         <v>36069</v>
       </c>
       <c r="B311">
-        <v>206.05764619999999</v>
+        <v>259014.4613</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -3367,7 +3368,7 @@
         <v>36100</v>
       </c>
       <c r="B312">
-        <v>208.79843539999999</v>
+        <v>262459.63329999999</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -3375,7 +3376,7 @@
         <v>36130</v>
       </c>
       <c r="B313">
-        <v>209.56138780000001</v>
+        <v>263418.66450000001</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -3383,7 +3384,7 @@
         <v>36161</v>
       </c>
       <c r="B314">
-        <v>208.73310939999999</v>
+        <v>262586.25160000002</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -3391,7 +3392,7 @@
         <v>36192</v>
       </c>
       <c r="B315">
-        <v>211.19967070000001</v>
+        <v>265689.18569999997</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -3399,7 +3400,7 @@
         <v>36220</v>
       </c>
       <c r="B316">
-        <v>210.48743010000001</v>
+        <v>264793.18709999998</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -3407,7 +3408,7 @@
         <v>36251</v>
       </c>
       <c r="B317">
-        <v>204.73704290000001</v>
+        <v>257559.2</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -3415,7 +3416,7 @@
         <v>36281</v>
       </c>
       <c r="B318">
-        <v>203.0382276</v>
+        <v>255422.09030000001</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -3423,7 +3424,7 @@
         <v>36312</v>
       </c>
       <c r="B319">
-        <v>202.18328030000001</v>
+        <v>254346.5667</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -3431,7 +3432,7 @@
         <v>36342</v>
       </c>
       <c r="B320">
-        <v>206.201618</v>
+        <v>259401.6355</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -3439,7 +3440,7 @@
         <v>36373</v>
       </c>
       <c r="B321">
-        <v>206.22926050000001</v>
+        <v>259436.40969999999</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -3447,7 +3448,7 @@
         <v>36404</v>
       </c>
       <c r="B322">
-        <v>206.641256</v>
+        <v>259954.7</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -3455,7 +3456,7 @@
         <v>36434</v>
       </c>
       <c r="B323">
-        <v>208.01899839999999</v>
+        <v>261687.9</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -3463,7 +3464,7 @@
         <v>36465</v>
       </c>
       <c r="B324">
-        <v>208.42098569999999</v>
+        <v>262193.59999999998</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -3471,7 +3472,7 @@
         <v>36495</v>
       </c>
       <c r="B325">
-        <v>208.74510230000001</v>
+        <v>262601.33870000002</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -3479,7 +3480,7 @@
         <v>36526</v>
       </c>
       <c r="B326">
-        <v>201.75713390000001</v>
+        <v>261880.7598</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -3487,7 +3488,7 @@
         <v>36557</v>
       </c>
       <c r="B327">
-        <v>204.97545210000001</v>
+        <v>266058.13679999998</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -3495,7 +3496,7 @@
         <v>36586</v>
       </c>
       <c r="B328">
-        <v>204.39102220000001</v>
+        <v>265299.54680000001</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -3503,7 +3504,7 @@
         <v>36617</v>
       </c>
       <c r="B329">
-        <v>204.02035649999999</v>
+        <v>264818.4227</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -3511,7 +3512,7 @@
         <v>36647</v>
       </c>
       <c r="B330">
-        <v>205.71414129999999</v>
+        <v>267016.95549999998</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -3519,7 +3520,7 @@
         <v>36678</v>
       </c>
       <c r="B331">
-        <v>205.60951829999999</v>
+        <v>266881.15470000001</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -3527,7 +3528,7 @@
         <v>36708</v>
       </c>
       <c r="B332">
-        <v>206.6951311</v>
+        <v>268290.28019999998</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -3535,7 +3536,7 @@
         <v>36739</v>
       </c>
       <c r="B333">
-        <v>210.13230849999999</v>
+        <v>272751.73639999999</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -3543,7 +3544,7 @@
         <v>36770</v>
       </c>
       <c r="B334">
-        <v>209.9710704</v>
+        <v>272542.44939999998</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -3551,7 +3552,7 @@
         <v>36800</v>
       </c>
       <c r="B335">
-        <v>210.5226342</v>
+        <v>273258.37920000002</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -3559,7 +3560,7 @@
         <v>36831</v>
       </c>
       <c r="B336">
-        <v>212.37351330000001</v>
+        <v>275660.82030000002</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -3567,1791 +3568,1791 @@
         <v>36861</v>
       </c>
       <c r="B337">
-        <v>210.10003130000001</v>
+        <v>272709.8407</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A338" s="2">
+      <c r="A338" s="1">
+        <v>36892</v>
+      </c>
+      <c r="B338">
+        <v>272052.49349999998</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" s="1">
+        <v>36923</v>
+      </c>
+      <c r="B339">
+        <v>271467.38449999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" s="1">
+        <v>36951</v>
+      </c>
+      <c r="B340">
+        <v>273277.7254</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" s="1">
+        <v>36982</v>
+      </c>
+      <c r="B341">
+        <v>268697.68180000002</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" s="1">
+        <v>37012</v>
+      </c>
+      <c r="B342">
+        <v>266445.1876</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" s="1">
+        <v>37043</v>
+      </c>
+      <c r="B343">
+        <v>261966.41649999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" s="1">
+        <v>37073</v>
+      </c>
+      <c r="B344">
+        <v>268670.71149999998</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" s="1">
+        <v>37104</v>
+      </c>
+      <c r="B345">
+        <v>269720.52100000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" s="1">
+        <v>37135</v>
+      </c>
+      <c r="B346">
+        <v>267228.25770000002</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" s="1">
+        <v>37165</v>
+      </c>
+      <c r="B347">
+        <v>267563.495</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" s="1">
+        <v>37196</v>
+      </c>
+      <c r="B348">
+        <v>269720.016</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" s="1">
+        <v>37226</v>
+      </c>
+      <c r="B349">
+        <v>267661.35139999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
+        <v>37257</v>
+      </c>
+      <c r="B350">
+        <v>266155.94540000003</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" s="1">
+        <v>37288</v>
+      </c>
+      <c r="B351">
+        <v>266899.54629999999</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
+        <v>37316</v>
+      </c>
+      <c r="B352">
+        <v>265606.31160000002</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
+        <v>37347</v>
+      </c>
+      <c r="B353">
+        <v>263168.7352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" s="1">
+        <v>37377</v>
+      </c>
+      <c r="B354">
+        <v>264224.16070000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
+        <v>37408</v>
+      </c>
+      <c r="B355">
+        <v>264042.70770000003</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" s="1">
+        <v>37438</v>
+      </c>
+      <c r="B356">
+        <v>266500.21350000001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" s="1">
+        <v>37469</v>
+      </c>
+      <c r="B357">
+        <v>265706.58390000003</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
+        <v>37500</v>
+      </c>
+      <c r="B358">
+        <v>267144.21049999999</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
+        <v>37530</v>
+      </c>
+      <c r="B359">
+        <v>271890.2427</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
+        <v>37561</v>
+      </c>
+      <c r="B360">
+        <v>273805.81699999998</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" s="1">
+        <v>37591</v>
+      </c>
+      <c r="B361">
+        <v>268583.27620000002</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
+        <v>37622</v>
+      </c>
+      <c r="B362">
+        <v>269257.45110000001</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" s="1">
+        <v>37653</v>
+      </c>
+      <c r="B363">
+        <v>276248.60619999998</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" s="1">
+        <v>37681</v>
+      </c>
+      <c r="B364">
+        <v>275528.3849</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" s="1">
+        <v>37712</v>
+      </c>
+      <c r="B365">
+        <v>271223.95299999998</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" s="1">
+        <v>37742</v>
+      </c>
+      <c r="B366">
+        <v>270294.1177</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" s="1">
+        <v>37773</v>
+      </c>
+      <c r="B367">
+        <v>268781.19910000003</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" s="1">
+        <v>37803</v>
+      </c>
+      <c r="B368">
+        <v>271589.27830000001</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" s="1">
+        <v>37834</v>
+      </c>
+      <c r="B369">
+        <v>273097.09730000002</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
+        <v>37865</v>
+      </c>
+      <c r="B370">
+        <v>275916.0037</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
+        <v>37895</v>
+      </c>
+      <c r="B371">
+        <v>279682.57679999998</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
+        <v>37926</v>
+      </c>
+      <c r="B372">
+        <v>280209.73109999998</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
+        <v>37956</v>
+      </c>
+      <c r="B373">
+        <v>286309.75060000003</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
+        <v>37987</v>
+      </c>
+      <c r="B374">
+        <v>284848.52899999998</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
+        <v>38018</v>
+      </c>
+      <c r="B375">
+        <v>285709.42810000002</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" s="1">
+        <v>38047</v>
+      </c>
+      <c r="B376">
+        <v>285034.45280000003</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" s="1">
+        <v>38078</v>
+      </c>
+      <c r="B377">
+        <v>283322.94910000003</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" s="1">
+        <v>38108</v>
+      </c>
+      <c r="B378">
+        <v>280549.6066</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" s="1">
+        <v>38139</v>
+      </c>
+      <c r="B379">
+        <v>286987.26209999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" s="1">
+        <v>38169</v>
+      </c>
+      <c r="B380">
+        <v>289251.55129999999</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" s="1">
+        <v>38200</v>
+      </c>
+      <c r="B381">
+        <v>286028.76130000001</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" s="1">
+        <v>38231</v>
+      </c>
+      <c r="B382">
+        <v>287701.12410000002</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" s="1">
+        <v>38261</v>
+      </c>
+      <c r="B383">
+        <v>290576.03570000001</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" s="1">
+        <v>38292</v>
+      </c>
+      <c r="B384">
+        <v>290332.49890000001</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
+        <v>38322</v>
+      </c>
+      <c r="B385">
+        <v>290798.76949999999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" s="1">
+        <v>38353</v>
+      </c>
+      <c r="B386">
+        <v>290824.55680000002</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" s="1">
+        <v>38384</v>
+      </c>
+      <c r="B387">
+        <v>293082.89159999997</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" s="1">
+        <v>38412</v>
+      </c>
+      <c r="B388">
+        <v>293240.61700000003</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" s="1">
+        <v>38443</v>
+      </c>
+      <c r="B389">
+        <v>291959.516</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" s="1">
+        <v>38473</v>
+      </c>
+      <c r="B390">
+        <v>292609.83639999997</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" s="1">
+        <v>38504</v>
+      </c>
+      <c r="B391">
+        <v>292474.3137</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" s="1">
+        <v>38534</v>
+      </c>
+      <c r="B392">
+        <v>291085.55310000002</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" s="1">
+        <v>38565</v>
+      </c>
+      <c r="B393">
+        <v>292960.239</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" s="1">
+        <v>38596</v>
+      </c>
+      <c r="B394">
+        <v>289574.20169999998</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" s="1">
+        <v>38626</v>
+      </c>
+      <c r="B395">
+        <v>288720.56099999999</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" s="1">
+        <v>38657</v>
+      </c>
+      <c r="B396">
+        <v>292933.69069999998</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" s="1">
+        <v>38687</v>
+      </c>
+      <c r="B397">
+        <v>293852.14980000001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" s="1">
+        <v>38718</v>
+      </c>
+      <c r="B398">
+        <v>292106.96909999999</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" s="1">
+        <v>38749</v>
+      </c>
+      <c r="B399">
+        <v>292934.05469999998</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" s="1">
+        <v>38777</v>
+      </c>
+      <c r="B400">
+        <v>291461.93329999998</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" s="1">
+        <v>38808</v>
+      </c>
+      <c r="B401">
+        <v>290033.57</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" s="1">
+        <v>38838</v>
+      </c>
+      <c r="B402">
+        <v>289387.39669999998</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" s="1">
+        <v>38869</v>
+      </c>
+      <c r="B403">
+        <v>290460.402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" s="1">
+        <v>38899</v>
+      </c>
+      <c r="B404">
+        <v>294224.10960000003</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" s="1">
+        <v>38930</v>
+      </c>
+      <c r="B405">
+        <v>294236.48330000002</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" s="1">
+        <v>38961</v>
+      </c>
+      <c r="B406">
+        <v>292035.16499999998</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" s="1">
+        <v>38991</v>
+      </c>
+      <c r="B407">
+        <v>293096.1384</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" s="1">
+        <v>39022</v>
+      </c>
+      <c r="B408">
+        <v>292258.46130000002</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" s="1">
+        <v>39052</v>
+      </c>
+      <c r="B409">
+        <v>291826.77620000002</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" s="1">
+        <v>39083</v>
+      </c>
+      <c r="B410">
+        <v>290137.56959999999</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" s="1">
+        <v>39114</v>
+      </c>
+      <c r="B411">
+        <v>292442.29440000001</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" s="1">
+        <v>39142</v>
+      </c>
+      <c r="B412">
+        <v>290948.2879</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" s="1">
+        <v>39173</v>
+      </c>
+      <c r="B413">
+        <v>291193.25400000002</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
+        <v>39203</v>
+      </c>
+      <c r="B414">
+        <v>289777.29849999998</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" s="1">
+        <v>39234</v>
+      </c>
+      <c r="B415">
+        <v>290110.13530000002</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" s="1">
+        <v>39264</v>
+      </c>
+      <c r="B416">
+        <v>291660.24420000002</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" s="1">
+        <v>39295</v>
+      </c>
+      <c r="B417">
+        <v>289622.61359999998</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" s="1">
+        <v>39326</v>
+      </c>
+      <c r="B418">
+        <v>291789.25300000003</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" s="1">
+        <v>39356</v>
+      </c>
+      <c r="B419">
+        <v>294590.52350000001</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" s="1">
+        <v>39387</v>
+      </c>
+      <c r="B420">
+        <v>294363.15899999999</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" s="1">
+        <v>39417</v>
+      </c>
+      <c r="B421">
+        <v>295907.72759999998</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" s="1">
+        <v>39448</v>
+      </c>
+      <c r="B422">
+        <v>295395.59899999999</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" s="1">
+        <v>39479</v>
+      </c>
+      <c r="B423">
+        <v>296242.51899999997</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" s="1">
+        <v>39508</v>
+      </c>
+      <c r="B424">
+        <v>295216.40049999999</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" s="1">
+        <v>39539</v>
+      </c>
+      <c r="B425">
+        <v>293880.739</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" s="1">
+        <v>39569</v>
+      </c>
+      <c r="B426">
+        <v>294967.92810000002</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" s="1">
+        <v>39600</v>
+      </c>
+      <c r="B427">
+        <v>294738.299</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" s="1">
+        <v>39630</v>
+      </c>
+      <c r="B428">
+        <v>298026.20380000002</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" s="1">
+        <v>39661</v>
+      </c>
+      <c r="B429">
+        <v>294218.65639999998</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" s="1">
+        <v>39692</v>
+      </c>
+      <c r="B430">
+        <v>288972.95770000003</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" s="1">
+        <v>39722</v>
+      </c>
+      <c r="B431">
+        <v>295461.10210000002</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" s="1">
+        <v>39753</v>
+      </c>
+      <c r="B432">
+        <v>293787.72330000001</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" s="1">
+        <v>39783</v>
+      </c>
+      <c r="B433">
+        <v>290855.94919999997</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" s="1">
+        <v>39814</v>
+      </c>
+      <c r="B434">
+        <v>287012.17499999999</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" s="1">
+        <v>39845</v>
+      </c>
+      <c r="B435">
+        <v>289122.26939999999</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" s="1">
+        <v>39873</v>
+      </c>
+      <c r="B436">
+        <v>288319.03269999998</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" s="1">
+        <v>39904</v>
+      </c>
+      <c r="B437">
+        <v>288550.80670000002</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" s="1">
+        <v>39934</v>
+      </c>
+      <c r="B438">
+        <v>287010.2794</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" s="1">
+        <v>39965</v>
+      </c>
+      <c r="B439">
+        <v>289076.46100000001</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" s="1">
+        <v>39995</v>
+      </c>
+      <c r="B440">
+        <v>291439.75160000002</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" s="1">
+        <v>40026</v>
+      </c>
+      <c r="B441">
+        <v>290253.39510000002</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" s="1">
+        <v>40057</v>
+      </c>
+      <c r="B442">
+        <v>291859.19429999997</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" s="1">
+        <v>40087</v>
+      </c>
+      <c r="B443">
+        <v>293637.36910000001</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" s="1">
+        <v>40118</v>
+      </c>
+      <c r="B444">
+        <v>293828.3187</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" s="1">
+        <v>40148</v>
+      </c>
+      <c r="B445">
+        <v>293756.07059999998</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" s="1">
+        <v>40179</v>
+      </c>
+      <c r="B446">
+        <v>293493.55979999999</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" s="1">
+        <v>40210</v>
+      </c>
+      <c r="B447">
+        <v>296498.56939999998</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" s="1">
+        <v>40238</v>
+      </c>
+      <c r="B448">
+        <v>297406.93</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" s="1">
+        <v>40269</v>
+      </c>
+      <c r="B449">
+        <v>297532.03230000002</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" s="1">
+        <v>40299</v>
+      </c>
+      <c r="B450">
+        <v>297840.92670000001</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" s="1">
+        <v>40330</v>
+      </c>
+      <c r="B451">
+        <v>299545.11900000001</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" s="1">
+        <v>40360</v>
+      </c>
+      <c r="B452">
+        <v>300205.67589999997</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" s="1">
+        <v>40391</v>
+      </c>
+      <c r="B453">
+        <v>300546.02419999999</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" s="1">
+        <v>40422</v>
+      </c>
+      <c r="B454">
+        <v>301368.41899999999</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" s="1">
+        <v>40452</v>
+      </c>
+      <c r="B455">
+        <v>299449.77350000001</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" s="1">
+        <v>40483</v>
+      </c>
+      <c r="B456">
+        <v>301584.41930000001</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" s="1">
+        <v>40513</v>
+      </c>
+      <c r="B457">
+        <v>302197.43819999998</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" s="1">
+        <v>40544</v>
+      </c>
+      <c r="B458">
+        <v>302948.63770000002</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" s="1">
+        <v>40575</v>
+      </c>
+      <c r="B459">
+        <v>300237.4607</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" s="1">
+        <v>40603</v>
+      </c>
+      <c r="B460">
+        <v>297136.5943</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" s="1">
+        <v>40634</v>
+      </c>
+      <c r="B461">
+        <v>295171.24469999998</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" s="1">
+        <v>40664</v>
+      </c>
+      <c r="B462">
+        <v>294200.40990000003</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" s="1">
+        <v>40695</v>
+      </c>
+      <c r="B463">
+        <v>298260.75699999998</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" s="1">
+        <v>40725</v>
+      </c>
+      <c r="B464">
+        <v>299525.78570000001</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" s="1">
+        <v>40756</v>
+      </c>
+      <c r="B465">
+        <v>302269.07789999997</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" s="1">
+        <v>40787</v>
+      </c>
+      <c r="B466">
+        <v>299536.42</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" s="1">
+        <v>40817</v>
+      </c>
+      <c r="B467">
+        <v>300460.64610000001</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" s="1">
+        <v>40848</v>
+      </c>
+      <c r="B468">
+        <v>303850.62329999998</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" s="1">
+        <v>40878</v>
+      </c>
+      <c r="B469">
+        <v>305311.00109999999</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" s="1">
+        <v>40909</v>
+      </c>
+      <c r="B470">
+        <v>304582.21470000001</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" s="1">
+        <v>40940</v>
+      </c>
+      <c r="B471">
+        <v>307761.51079999999</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" s="1">
+        <v>40969</v>
+      </c>
+      <c r="B472">
+        <v>305211.2769</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" s="1">
+        <v>41000</v>
+      </c>
+      <c r="B473">
+        <v>305565.13270000002</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" s="1">
+        <v>41030</v>
+      </c>
+      <c r="B474">
+        <v>304887.48849999998</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" s="1">
+        <v>41061</v>
+      </c>
+      <c r="B475">
+        <v>304328.45730000001</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" s="1">
+        <v>41091</v>
+      </c>
+      <c r="B476">
+        <v>305692.44319999998</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" s="1">
+        <v>41122</v>
+      </c>
+      <c r="B477">
+        <v>306624.12239999999</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" s="1">
+        <v>41153</v>
+      </c>
+      <c r="B478">
+        <v>303358.60600000003</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" s="1">
+        <v>41183</v>
+      </c>
+      <c r="B479">
+        <v>306296.77789999999</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" s="1">
+        <v>41214</v>
+      </c>
+      <c r="B480">
+        <v>308029.80530000001</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" s="1">
+        <v>41244</v>
+      </c>
+      <c r="B481">
+        <v>306839.8849</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" s="1">
+        <v>41275</v>
+      </c>
+      <c r="B482">
+        <v>304614.89319999999</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <v>41306</v>
+      </c>
+      <c r="B483">
+        <v>304440.49359999999</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" s="1">
+        <v>41334</v>
+      </c>
+      <c r="B484">
+        <v>303991.42609999998</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" s="1">
+        <v>41365</v>
+      </c>
+      <c r="B485">
+        <v>306769.67300000001</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
+        <v>41395</v>
+      </c>
+      <c r="B486">
+        <v>306777.53419999999</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
+        <v>41426</v>
+      </c>
+      <c r="B487">
+        <v>306622.42070000002</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <v>41456</v>
+      </c>
+      <c r="B488">
+        <v>310308.52149999997</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
+        <v>41487</v>
+      </c>
+      <c r="B489">
+        <v>309466.51899999997</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
+        <v>41518</v>
+      </c>
+      <c r="B490">
+        <v>307425.74530000001</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
+        <v>41548</v>
+      </c>
+      <c r="B491">
+        <v>308410.21730000002</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
+        <v>41579</v>
+      </c>
+      <c r="B492">
+        <v>310065.31800000003</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" s="1">
+        <v>41609</v>
+      </c>
+      <c r="B493">
+        <v>309833.30670000002</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" s="1">
+        <v>41640</v>
+      </c>
+      <c r="B494">
+        <v>310032.34899999999</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B495">
+        <v>312223.27610000002</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" s="1">
+        <v>41699</v>
+      </c>
+      <c r="B496">
+        <v>309513.09720000002</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" s="1">
+        <v>41730</v>
+      </c>
+      <c r="B497">
+        <v>309738.31229999999</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" s="1">
+        <v>41760</v>
+      </c>
+      <c r="B498">
+        <v>310389.86060000001</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" s="1">
+        <v>41791</v>
+      </c>
+      <c r="B499">
+        <v>313378.72600000002</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B500">
+        <v>314843.77549999999</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" s="1">
+        <v>41852</v>
+      </c>
+      <c r="B501">
+        <v>315855.6544</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" s="1">
+        <v>41883</v>
+      </c>
+      <c r="B502">
+        <v>317613.95429999998</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
+        <v>41913</v>
+      </c>
+      <c r="B503">
+        <v>321647.28129999997</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
+        <v>41944</v>
+      </c>
+      <c r="B504">
+        <v>319562.09529999999</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
+        <v>41974</v>
+      </c>
+      <c r="B505">
+        <v>323177.28710000002</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B506">
+        <v>318788.93420000002</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" s="1">
+        <v>42036</v>
+      </c>
+      <c r="B507">
+        <v>320176.90429999999</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" s="1">
+        <v>42064</v>
+      </c>
+      <c r="B508">
+        <v>321882.64919999999</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" s="1">
+        <v>42095</v>
+      </c>
+      <c r="B509">
+        <v>321730.11170000001</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" s="1">
+        <v>42125</v>
+      </c>
+      <c r="B510">
+        <v>321330.67310000001</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" s="1">
+        <v>42156</v>
+      </c>
+      <c r="B511">
+        <v>324275.06170000002</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B512">
+        <v>326526.08380000002</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>42217</v>
+      </c>
+      <c r="B513">
+        <v>326208.25150000001</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <v>42248</v>
+      </c>
+      <c r="B514">
+        <v>325264.66869999998</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>42278</v>
+      </c>
+      <c r="B515">
+        <v>325576.02380000002</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <v>42309</v>
+      </c>
+      <c r="B516">
+        <v>326081.74329999997</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B517">
+        <v>327311.87609999999</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B518">
+        <v>325503.32010000001</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <v>42401</v>
+      </c>
+      <c r="B519">
+        <v>324625.04479999997</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" s="1">
+        <v>42430</v>
+      </c>
+      <c r="B520">
+        <v>324431.90000000002</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" s="1">
+        <v>42461</v>
+      </c>
+      <c r="B521">
+        <v>322631.07199999999</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" s="1">
+        <v>42491</v>
+      </c>
+      <c r="B522">
+        <v>320518.76980000001</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <v>42522</v>
+      </c>
+      <c r="B523">
+        <v>322689.79670000001</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B524">
+        <v>326029.67540000001</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" s="1">
+        <v>42583</v>
+      </c>
+      <c r="B525">
+        <v>324042.17810000002</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" s="1">
+        <v>42614</v>
+      </c>
+      <c r="B526">
+        <v>323841.25799999997</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B527">
+        <v>327104.76130000001</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" s="1">
+        <v>42675</v>
+      </c>
+      <c r="B528">
+        <v>331104.89069999999</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" s="1">
+        <v>42705</v>
+      </c>
+      <c r="B529">
+        <v>328759.86849999998</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B530">
+        <v>324139.09250000003</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" s="1">
+        <v>42767</v>
+      </c>
+      <c r="B531">
+        <v>325197.35029999999</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" s="1">
+        <v>42795</v>
+      </c>
+      <c r="B532">
+        <v>323892.78739999997</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B533">
+        <v>321846.5833</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" s="1">
+        <v>42856</v>
+      </c>
+      <c r="B534">
+        <v>325296.42969999998</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" s="1">
+        <v>42887</v>
+      </c>
+      <c r="B535">
+        <v>328166.315</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B536">
+        <v>330017.83549999999</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" s="1">
+        <v>42948</v>
+      </c>
+      <c r="B537">
+        <v>327999.71000000002</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" s="1">
+        <v>42979</v>
+      </c>
+      <c r="B538">
+        <v>327942.2513</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" s="1">
+        <v>43009</v>
+      </c>
+      <c r="B539">
+        <v>329359.33899999998</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" s="1">
+        <v>43040</v>
+      </c>
+      <c r="B540">
+        <v>332267.64299999998</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" s="1">
+        <v>43070</v>
+      </c>
+      <c r="B541">
+        <v>330133.55670000002</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B542">
+        <v>331003.75160000002</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" s="1">
+        <v>43132</v>
+      </c>
+      <c r="B543">
+        <v>332122.81199999998</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B544">
+        <v>332359.60609999998</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B545">
+        <v>331506.8383</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B546">
+        <v>331410.8946</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B547">
+        <v>334407.72269999998</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B548">
+        <v>337133.93</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" s="1">
+        <v>43313</v>
+      </c>
+      <c r="B549">
+        <v>339200.73680000001</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B550">
+        <v>337982.777</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B551">
+        <v>341183.3002</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" s="1">
+        <v>43405</v>
+      </c>
+      <c r="B552">
+        <v>341614.91230000003</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" s="1">
+        <v>43435</v>
+      </c>
+      <c r="B553">
+        <v>339153.85749999998</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" s="1">
         <v>43466</v>
       </c>
-      <c r="B338">
-        <v>209.59360050000001</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A339" s="2">
+      <c r="B554">
+        <v>335111.73560000001</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" s="1">
         <v>43497</v>
       </c>
-      <c r="B339">
-        <v>209.14282320000001</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A340" s="2">
+      <c r="B555">
+        <v>334663.2267</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" s="1">
         <v>43525</v>
       </c>
-      <c r="B340">
-        <v>210.53753879999999</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A341" s="2">
+      <c r="B556">
+        <v>333425.52620000002</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" s="1">
         <v>43556</v>
       </c>
-      <c r="B341">
-        <v>207.00899989999999</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A342" s="2">
+      <c r="B557">
+        <v>333806.54969999997</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558" s="1">
         <v>43586</v>
       </c>
-      <c r="B342">
-        <v>205.27364220000001</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A343" s="2">
+      <c r="B558">
+        <v>332523.34230000002</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" s="1">
         <v>43617</v>
       </c>
-      <c r="B343">
-        <v>201.82312519999999</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A344" s="2">
+      <c r="B559">
+        <v>334474.46799999999</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" s="1">
         <v>43647</v>
       </c>
-      <c r="B344">
-        <v>206.98822150000001</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A345" s="2">
-        <v>43678</v>
-      </c>
-      <c r="B345">
-        <v>207.79701159999999</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A346" s="2">
-        <v>43709</v>
-      </c>
-      <c r="B346">
-        <v>205.87693189999999</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A347" s="2">
-        <v>43739</v>
-      </c>
-      <c r="B347">
-        <v>206.1352042</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A348" s="2">
-        <v>43770</v>
-      </c>
-      <c r="B348">
-        <v>207.79662250000001</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A349" s="2">
-        <v>43800</v>
-      </c>
-      <c r="B349">
-        <v>206.2105943</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A350" s="2">
-        <v>43467</v>
-      </c>
-      <c r="B350">
-        <v>205.0508054</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A351" s="2">
-        <v>43498</v>
-      </c>
-      <c r="B351">
-        <v>205.62368749999999</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A352" s="2">
-        <v>43526</v>
-      </c>
-      <c r="B352">
-        <v>204.6273587</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A353" s="2">
-        <v>43557</v>
-      </c>
-      <c r="B353">
-        <v>202.7494107</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A354" s="2">
-        <v>43587</v>
-      </c>
-      <c r="B354">
-        <v>203.56252749999999</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A355" s="2">
-        <v>43618</v>
-      </c>
-      <c r="B355">
-        <v>203.42273320000001</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A356" s="2">
-        <v>43648</v>
-      </c>
-      <c r="B356">
-        <v>205.31603509999999</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A357" s="2">
-        <v>43679</v>
-      </c>
-      <c r="B357">
-        <v>204.7046101</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A358" s="2">
-        <v>43710</v>
-      </c>
-      <c r="B358">
-        <v>205.8121807</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A359" s="2">
-        <v>43740</v>
-      </c>
-      <c r="B359">
-        <v>209.46859989999999</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A360" s="2">
-        <v>43771</v>
-      </c>
-      <c r="B360">
-        <v>210.9443891</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A361" s="2">
-        <v>43801</v>
-      </c>
-      <c r="B361">
-        <v>206.92085990000001</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A362" s="2">
-        <v>43468</v>
-      </c>
-      <c r="B362">
-        <v>206.48577539999999</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A363" s="2">
-        <v>43499</v>
-      </c>
-      <c r="B363">
-        <v>211.8470906</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A364" s="2">
-        <v>43527</v>
-      </c>
-      <c r="B364">
-        <v>211.29477370000001</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A365" s="2">
-        <v>43558</v>
-      </c>
-      <c r="B365">
-        <v>207.99382900000001</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A366" s="2">
-        <v>43588</v>
-      </c>
-      <c r="B366">
-        <v>207.2807651</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A367" s="2">
-        <v>43619</v>
-      </c>
-      <c r="B367">
-        <v>206.1205515</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A368" s="2">
-        <v>43649</v>
-      </c>
-      <c r="B368">
-        <v>208.27398640000001</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A369" s="2">
-        <v>43680</v>
-      </c>
-      <c r="B369">
-        <v>209.4302893</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A370" s="2">
-        <v>43711</v>
-      </c>
-      <c r="B370">
-        <v>211.59202740000001</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A371" s="2">
-        <v>43741</v>
-      </c>
-      <c r="B371">
-        <v>214.48050370000001</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A372" s="2">
-        <v>43772</v>
-      </c>
-      <c r="B372">
-        <v>214.88476309999999</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A373" s="2">
-        <v>43802</v>
-      </c>
-      <c r="B373">
-        <v>219.56269219999999</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A374" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B374">
-        <v>218.44212340000001</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A375" s="2">
-        <v>43500</v>
-      </c>
-      <c r="B375">
-        <v>219.1023222</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A376" s="2">
-        <v>43528</v>
-      </c>
-      <c r="B376">
-        <v>218.58470310000001</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A377" s="2">
-        <v>43559</v>
-      </c>
-      <c r="B377">
-        <v>217.27220030000001</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A378" s="2">
-        <v>43589</v>
-      </c>
-      <c r="B378">
-        <v>215.1454038</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A379" s="2">
-        <v>43620</v>
-      </c>
-      <c r="B379">
-        <v>220.08225619999999</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A380" s="2">
-        <v>43650</v>
-      </c>
-      <c r="B380">
-        <v>221.8186743</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A381" s="2">
-        <v>43681</v>
-      </c>
-      <c r="B381">
-        <v>219.34720960000001</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A382" s="2">
-        <v>43712</v>
-      </c>
-      <c r="B382">
-        <v>220.6296964</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A383" s="2">
-        <v>43742</v>
-      </c>
-      <c r="B383">
-        <v>222.83438319999999</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A384" s="2">
-        <v>43773</v>
-      </c>
-      <c r="B384">
-        <v>222.64762189999999</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A385" s="2">
-        <v>43803</v>
-      </c>
-      <c r="B385">
-        <v>223.0051914</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A386" s="2">
-        <v>43470</v>
-      </c>
-      <c r="B386">
-        <v>223.02496690000001</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A387" s="2">
-        <v>43501</v>
-      </c>
-      <c r="B387">
-        <v>224.7568187</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A388" s="2">
-        <v>43529</v>
-      </c>
-      <c r="B388">
-        <v>224.8777738</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A389" s="2">
-        <v>43560</v>
-      </c>
-      <c r="B389">
-        <v>223.8953344</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A390" s="2">
-        <v>43590</v>
-      </c>
-      <c r="B390">
-        <v>224.39404630000001</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A391" s="2">
-        <v>43621</v>
-      </c>
-      <c r="B391">
-        <v>224.29011779999999</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A392" s="2">
-        <v>43651</v>
-      </c>
-      <c r="B392">
-        <v>223.22511739999999</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A393" s="2">
-        <v>43682</v>
-      </c>
-      <c r="B393">
-        <v>224.66275999999999</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A394" s="2">
-        <v>43713</v>
-      </c>
-      <c r="B394">
-        <v>222.06610559999999</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A395" s="2">
-        <v>43743</v>
-      </c>
-      <c r="B395">
-        <v>221.41147319999999</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A396" s="2">
-        <v>43774</v>
-      </c>
-      <c r="B396">
-        <v>224.64240079999999</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A397" s="2">
-        <v>43804</v>
-      </c>
-      <c r="B397">
-        <v>225.3467407</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A398" s="2">
-        <v>43471</v>
-      </c>
-      <c r="B398">
-        <v>222.98241920000001</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A399" s="2">
-        <v>43502</v>
-      </c>
-      <c r="B399">
-        <v>223.6137822</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A400" s="2">
-        <v>43530</v>
-      </c>
-      <c r="B400">
-        <v>222.49002540000001</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A401" s="2">
-        <v>43561</v>
-      </c>
-      <c r="B401">
-        <v>221.39967179999999</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A402" s="2">
-        <v>43591</v>
-      </c>
-      <c r="B402">
-        <v>220.90640970000001</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A403" s="2">
-        <v>43622</v>
-      </c>
-      <c r="B403">
-        <v>221.72549770000001</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A404" s="2">
-        <v>43652</v>
-      </c>
-      <c r="B404">
-        <v>224.598557</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A405" s="2">
-        <v>43683</v>
-      </c>
-      <c r="B405">
-        <v>224.6080025</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A406" s="2">
-        <v>43714</v>
-      </c>
-      <c r="B406">
-        <v>222.9276069</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A407" s="2">
-        <v>43744</v>
-      </c>
-      <c r="B407">
-        <v>223.7375102</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A408" s="2">
-        <v>43775</v>
-      </c>
-      <c r="B408">
-        <v>223.09806209999999</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A409" s="2">
-        <v>43805</v>
-      </c>
-      <c r="B409">
-        <v>222.76853149999999</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A410" s="2">
-        <v>43472</v>
-      </c>
-      <c r="B410">
-        <v>221.47906080000001</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A411" s="2">
-        <v>43503</v>
-      </c>
-      <c r="B411">
-        <v>223.23839269999999</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A412" s="2">
-        <v>43531</v>
-      </c>
-      <c r="B412">
-        <v>222.09792970000001</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A413" s="2">
-        <v>43562</v>
-      </c>
-      <c r="B413">
-        <v>222.2849267</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A414" s="2">
-        <v>43592</v>
-      </c>
-      <c r="B414">
-        <v>221.2040447</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A415" s="2">
-        <v>43623</v>
-      </c>
-      <c r="B415">
-        <v>221.45811860000001</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A416" s="2">
-        <v>43653</v>
-      </c>
-      <c r="B416">
-        <v>222.6414078</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A417" s="2">
-        <v>43684</v>
-      </c>
-      <c r="B417">
-        <v>221.08596460000001</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A418" s="2">
-        <v>43715</v>
-      </c>
-      <c r="B418">
-        <v>222.73988779999999</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A419" s="2">
-        <v>43745</v>
-      </c>
-      <c r="B419">
-        <v>224.87826219999999</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A420" s="2">
-        <v>43776</v>
-      </c>
-      <c r="B420">
-        <v>224.7047015</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A421" s="2">
-        <v>43806</v>
-      </c>
-      <c r="B421">
-        <v>225.88376149999999</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A422" s="2">
-        <v>43473</v>
-      </c>
-      <c r="B422">
-        <v>225.4928237</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A423" s="2">
-        <v>43504</v>
-      </c>
-      <c r="B423">
-        <v>226.13932750000001</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A424" s="2">
-        <v>43532</v>
-      </c>
-      <c r="B424">
-        <v>225.35603090000001</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A425" s="2">
-        <v>43563</v>
-      </c>
-      <c r="B425">
-        <v>224.33644200000001</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A426" s="2">
-        <v>43593</v>
-      </c>
-      <c r="B426">
-        <v>225.16635740000001</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A427" s="2">
-        <v>43624</v>
-      </c>
-      <c r="B427">
-        <v>224.99106789999999</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A428" s="2">
-        <v>43654</v>
-      </c>
-      <c r="B428">
-        <v>227.50091889999999</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A429" s="2">
-        <v>43685</v>
-      </c>
-      <c r="B429">
-        <v>224.59439420000001</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A430" s="2">
-        <v>43716</v>
-      </c>
-      <c r="B430">
-        <v>220.59004400000001</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A431" s="2">
-        <v>43746</v>
-      </c>
-      <c r="B431">
-        <v>225.54282599999999</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A432" s="2">
-        <v>43777</v>
-      </c>
-      <c r="B432">
-        <v>224.26543770000001</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A433" s="2">
-        <v>43807</v>
-      </c>
-      <c r="B433">
-        <v>222.0274421</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A434" s="2">
-        <v>43474</v>
-      </c>
-      <c r="B434">
-        <v>219.09326340000001</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A435" s="2">
-        <v>43505</v>
-      </c>
-      <c r="B435">
-        <v>220.70402250000001</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A436" s="2">
-        <v>43533</v>
-      </c>
-      <c r="B436">
-        <v>220.0908647</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A437" s="2">
-        <v>43564</v>
-      </c>
-      <c r="B437">
-        <v>220.2677913</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A438" s="2">
-        <v>43594</v>
-      </c>
-      <c r="B438">
-        <v>219.0918163</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A439" s="2">
-        <v>43625</v>
-      </c>
-      <c r="B439">
-        <v>220.66905420000001</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A440" s="2">
-        <v>43655</v>
-      </c>
-      <c r="B440">
-        <v>222.47309279999999</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A441" s="2">
-        <v>43686</v>
-      </c>
-      <c r="B441">
-        <v>221.56747720000001</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A442" s="2">
-        <v>43717</v>
-      </c>
-      <c r="B442">
-        <v>222.79327810000001</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A443" s="2">
-        <v>43747</v>
-      </c>
-      <c r="B443">
-        <v>224.15066340000001</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A444" s="2">
-        <v>43778</v>
-      </c>
-      <c r="B444">
-        <v>224.2964265</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A445" s="2">
-        <v>43808</v>
-      </c>
-      <c r="B445">
-        <v>224.24127530000001</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A446" s="2">
-        <v>43475</v>
-      </c>
-      <c r="B446">
-        <v>224.04088530000001</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A447" s="2">
-        <v>43506</v>
-      </c>
-      <c r="B447">
-        <v>226.33478579999999</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A448" s="2">
-        <v>43534</v>
-      </c>
-      <c r="B448">
-        <v>227.0281908</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A449" s="2">
-        <v>43565</v>
-      </c>
-      <c r="B449">
-        <v>227.1236888</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A450" s="2">
-        <v>43595</v>
-      </c>
-      <c r="B450">
-        <v>227.359486</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A451" s="2">
-        <v>43626</v>
-      </c>
-      <c r="B451">
-        <v>228.66039620000001</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A452" s="2">
-        <v>43656</v>
-      </c>
-      <c r="B452">
-        <v>229.16463809999999</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A453" s="2">
-        <v>43687</v>
-      </c>
-      <c r="B453">
-        <v>229.42444599999999</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A454" s="2">
-        <v>43718</v>
-      </c>
-      <c r="B454">
-        <v>230.0522282</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A455" s="2">
-        <v>43748</v>
-      </c>
-      <c r="B455">
-        <v>228.58761340000001</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A456" s="2">
-        <v>43779</v>
-      </c>
-      <c r="B456">
-        <v>230.21711400000001</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A457" s="2">
-        <v>43809</v>
-      </c>
-      <c r="B457">
-        <v>230.68506729999999</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A458" s="2">
-        <v>43476</v>
-      </c>
-      <c r="B458">
-        <v>231.25850209999999</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A459" s="2">
-        <v>43507</v>
-      </c>
-      <c r="B459">
-        <v>229.1889013</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A460" s="2">
-        <v>43535</v>
-      </c>
-      <c r="B460">
-        <v>226.8218277</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A461" s="2">
-        <v>43566</v>
-      </c>
-      <c r="B461">
-        <v>225.32156079999999</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A462" s="2">
-        <v>43596</v>
-      </c>
-      <c r="B462">
-        <v>224.5804655</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A463" s="2">
-        <v>43627</v>
-      </c>
-      <c r="B463">
-        <v>227.67996719999999</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A464" s="2">
-        <v>43657</v>
-      </c>
-      <c r="B464">
-        <v>228.6456379</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A465" s="2">
-        <v>43688</v>
-      </c>
-      <c r="B465">
-        <v>230.7397541</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A466" s="2">
-        <v>43719</v>
-      </c>
-      <c r="B466">
-        <v>228.6537557</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A467" s="2">
-        <v>43749</v>
-      </c>
-      <c r="B467">
-        <v>229.35927179999999</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A468" s="2">
-        <v>43780</v>
-      </c>
-      <c r="B468">
-        <v>231.9470407</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A469" s="2">
-        <v>43810</v>
-      </c>
-      <c r="B469">
-        <v>233.06183290000001</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A470" s="2">
-        <v>43477</v>
-      </c>
-      <c r="B470">
-        <v>232.5055074</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A471" s="2">
-        <v>43508</v>
-      </c>
-      <c r="B471">
-        <v>234.93245099999999</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A472" s="2">
-        <v>43536</v>
-      </c>
-      <c r="B472">
-        <v>232.98570749999999</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A473" s="2">
-        <v>43567</v>
-      </c>
-      <c r="B473">
-        <v>233.25582650000001</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A474" s="2">
-        <v>43597</v>
-      </c>
-      <c r="B474">
-        <v>232.7385409</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A475" s="2">
-        <v>43628</v>
-      </c>
-      <c r="B475">
-        <v>232.31179950000001</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A476" s="2">
-        <v>43658</v>
-      </c>
-      <c r="B476">
-        <v>233.35301000000001</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A477" s="2">
-        <v>43689</v>
-      </c>
-      <c r="B477">
-        <v>234.06421560000001</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A478" s="2">
-        <v>43720</v>
-      </c>
-      <c r="B478">
-        <v>231.57145499999999</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A479" s="2">
-        <v>43750</v>
-      </c>
-      <c r="B479">
-        <v>233.81433430000001</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A480" s="2">
-        <v>43781</v>
-      </c>
-      <c r="B480">
-        <v>235.13725600000001</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A481" s="2">
-        <v>43811</v>
-      </c>
-      <c r="B481">
-        <v>234.22891970000001</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A482" s="2">
-        <v>43478</v>
-      </c>
-      <c r="B482">
-        <v>232.53045280000001</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A483" s="2">
-        <v>43509</v>
-      </c>
-      <c r="B483">
-        <v>232.39732330000001</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A484" s="2">
-        <v>43537</v>
-      </c>
-      <c r="B484">
-        <v>232.0545237</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A485" s="2">
-        <v>43568</v>
-      </c>
-      <c r="B485">
-        <v>234.1753229</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A486" s="2">
-        <v>43598</v>
-      </c>
-      <c r="B486">
-        <v>234.1813238</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A487" s="2">
-        <v>43629</v>
-      </c>
-      <c r="B487">
-        <v>234.0629165</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A488" s="2">
-        <v>43659</v>
-      </c>
-      <c r="B488">
-        <v>236.8767339</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A489" s="2">
-        <v>43690</v>
-      </c>
-      <c r="B489">
-        <v>236.23398399999999</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A490" s="2">
-        <v>43721</v>
-      </c>
-      <c r="B490">
-        <v>234.6761415</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A491" s="2">
-        <v>43751</v>
-      </c>
-      <c r="B491">
-        <v>235.42764679999999</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A492" s="2">
-        <v>43782</v>
-      </c>
-      <c r="B492">
-        <v>236.6910824</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A493" s="2">
-        <v>43812</v>
-      </c>
-      <c r="B493">
-        <v>236.51397460000001</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A494" s="2">
-        <v>43479</v>
-      </c>
-      <c r="B494">
-        <v>236.66591529999999</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A495" s="2">
-        <v>43510</v>
-      </c>
-      <c r="B495">
-        <v>238.33837869999999</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A496" s="2">
-        <v>43538</v>
-      </c>
-      <c r="B496">
-        <v>236.26953979999999</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A497" s="2">
-        <v>43569</v>
-      </c>
-      <c r="B497">
-        <v>236.44145979999999</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A498" s="2">
-        <v>43599</v>
-      </c>
-      <c r="B498">
-        <v>236.93882489999999</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A499" s="2">
-        <v>43630</v>
-      </c>
-      <c r="B499">
-        <v>239.22040150000001</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A500" s="2">
-        <v>43660</v>
-      </c>
-      <c r="B500">
-        <v>240.33875990000001</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A501" s="2">
-        <v>43691</v>
-      </c>
-      <c r="B501">
-        <v>241.1111865</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A502" s="2">
-        <v>43722</v>
-      </c>
-      <c r="B502">
-        <v>242.4534003</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A503" s="2">
-        <v>43752</v>
-      </c>
-      <c r="B503">
-        <v>245.53227580000001</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A504" s="2">
-        <v>43783</v>
-      </c>
-      <c r="B504">
-        <v>243.9405308</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A505" s="2">
-        <v>43813</v>
-      </c>
-      <c r="B505">
-        <v>246.70021919999999</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A506" s="2">
-        <v>43480</v>
-      </c>
-      <c r="B506">
-        <v>243.35033139999999</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A507" s="2">
-        <v>43511</v>
-      </c>
-      <c r="B507">
-        <v>244.4098506</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A508" s="2">
-        <v>43539</v>
-      </c>
-      <c r="B508">
-        <v>245.71194600000001</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A509" s="2">
-        <v>43570</v>
-      </c>
-      <c r="B509">
-        <v>245.5955051</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A510" s="2">
-        <v>43600</v>
-      </c>
-      <c r="B510">
-        <v>245.2905901</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A511" s="2">
-        <v>43631</v>
-      </c>
-      <c r="B511">
-        <v>247.53821500000001</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A512" s="2">
-        <v>43661</v>
-      </c>
-      <c r="B512">
-        <v>249.2565525</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A513" s="2">
-        <v>43692</v>
-      </c>
-      <c r="B513">
-        <v>249.01393239999999</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A514" s="2">
-        <v>43723</v>
-      </c>
-      <c r="B514">
-        <v>248.2936402</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A515" s="2">
-        <v>43753</v>
-      </c>
-      <c r="B515">
-        <v>248.53131590000001</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A516" s="2">
-        <v>43784</v>
-      </c>
-      <c r="B516">
-        <v>248.91736130000001</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A517" s="2">
-        <v>43814</v>
-      </c>
-      <c r="B517">
-        <v>249.8563939</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A518" s="2">
-        <v>43481</v>
-      </c>
-      <c r="B518">
-        <v>248.47581690000001</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A519" s="2">
-        <v>43512</v>
-      </c>
-      <c r="B519">
-        <v>247.80537770000001</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A520" s="2">
-        <v>43540</v>
-      </c>
-      <c r="B520">
-        <v>247.657939</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A521" s="2">
-        <v>43571</v>
-      </c>
-      <c r="B521">
-        <v>246.2832611</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A522" s="2">
-        <v>43601</v>
-      </c>
-      <c r="B522">
-        <v>244.67081659999999</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A523" s="2">
-        <v>43632</v>
-      </c>
-      <c r="B523">
-        <v>246.3280891</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A524" s="2">
-        <v>43662</v>
-      </c>
-      <c r="B524">
-        <v>248.8776148</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A525" s="2">
-        <v>43693</v>
-      </c>
-      <c r="B525">
-        <v>247.36044129999999</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A526" s="2">
-        <v>43724</v>
-      </c>
-      <c r="B526">
-        <v>247.20706720000001</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A527" s="2">
-        <v>43754</v>
-      </c>
-      <c r="B527">
-        <v>249.69829110000001</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A528" s="2">
-        <v>43785</v>
-      </c>
-      <c r="B528">
-        <v>252.7518249</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A529" s="2">
-        <v>43815</v>
-      </c>
-      <c r="B529">
-        <v>250.9617317</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A530" s="2">
-        <v>43482</v>
-      </c>
-      <c r="B530">
-        <v>247.4344218</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A531" s="2">
-        <v>43513</v>
-      </c>
-      <c r="B531">
-        <v>248.2422521</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A532" s="2">
-        <v>43541</v>
-      </c>
-      <c r="B532">
-        <v>247.24640260000001</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A533" s="2">
-        <v>43572</v>
-      </c>
-      <c r="B533">
-        <v>245.68441480000001</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A534" s="2">
-        <v>43602</v>
-      </c>
-      <c r="B534">
-        <v>248.31788520000001</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A535" s="2">
-        <v>43633</v>
-      </c>
-      <c r="B535">
-        <v>250.5086374</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A536" s="2">
-        <v>43663</v>
-      </c>
-      <c r="B536">
-        <v>251.92201180000001</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A537" s="2">
-        <v>43694</v>
-      </c>
-      <c r="B537">
-        <v>250.38145800000001</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A538" s="2">
-        <v>43725</v>
-      </c>
-      <c r="B538">
-        <v>250.3375964</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A539" s="2">
-        <v>43755</v>
-      </c>
-      <c r="B539">
-        <v>251.41934269999999</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A540" s="2">
-        <v>43786</v>
-      </c>
-      <c r="B540">
-        <v>253.63942209999999</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A541" s="2">
-        <v>43816</v>
-      </c>
-      <c r="B541">
-        <v>252.01034859999999</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A542" s="2">
-        <v>43483</v>
-      </c>
-      <c r="B542">
-        <v>252.6746196</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A543" s="2">
-        <v>43514</v>
-      </c>
-      <c r="B543">
-        <v>253.52886409999999</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A544" s="2">
-        <v>43542</v>
-      </c>
-      <c r="B544">
-        <v>253.70962299999999</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A545" s="2">
-        <v>43573</v>
-      </c>
-      <c r="B545">
-        <v>253.0586552</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A546" s="2">
-        <v>43603</v>
-      </c>
-      <c r="B546">
-        <v>252.9854157</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A547" s="2">
-        <v>43634</v>
-      </c>
-      <c r="B547">
-        <v>255.27307070000001</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A548" s="2">
-        <v>43664</v>
-      </c>
-      <c r="B548">
-        <v>257.35414509999998</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A549" s="2">
-        <v>43695</v>
-      </c>
-      <c r="B549">
-        <v>258.93186009999999</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A550" s="2">
-        <v>43726</v>
-      </c>
-      <c r="B550">
-        <v>258.0021198</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A551" s="2">
-        <v>43756</v>
-      </c>
-      <c r="B551">
-        <v>260.44526730000001</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A552" s="2">
-        <v>43787</v>
-      </c>
-      <c r="B552">
-        <v>260.77474219999999</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A553" s="2">
-        <v>43817</v>
-      </c>
-      <c r="B553">
-        <v>258.8960745</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A554" s="2">
-        <v>43484</v>
-      </c>
-      <c r="B554">
-        <v>255.81048519999999</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A555" s="2">
-        <v>43515</v>
-      </c>
-      <c r="B555">
-        <v>255.46811199999999</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A556" s="2">
-        <v>43543</v>
-      </c>
-      <c r="B556">
-        <v>254.5233025</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A557" s="2">
-        <v>43574</v>
-      </c>
-      <c r="B557">
-        <v>254.81416010000001</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A558" s="2">
-        <v>43604</v>
-      </c>
-      <c r="B558">
-        <v>253.8346124</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A559" s="2">
-        <v>43635</v>
-      </c>
-      <c r="B559">
-        <v>255.32402139999999</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A560" s="2">
-        <v>43665</v>
-      </c>
       <c r="B560">
-        <v>254.60044060000001</v>
+        <v>333526.5772</v>
       </c>
     </row>
   </sheetData>
